--- a/doc/2_外部設計書/02_DB定義書_WAC.xlsx
+++ b/doc/2_外部設計書/02_DB定義書_WAC.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\開発演習\外部設計\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A2\doc\2_外部設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{809EE750-D58E-4BDB-9264-244840A5331E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96691E47-6E76-4526-8C23-B7CD2B1A7CFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="137">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -332,16 +332,6 @@
     <t xml:space="preserve">author </t>
   </si>
   <si>
-    <t>タイトルは１００字以内に限定する</t>
-    <rPh sb="8" eb="11">
-      <t>ジイナイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ゲンテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>レビュー内容</t>
     <rPh sb="4" eb="6">
       <t>ナイヨウ</t>
@@ -360,19 +350,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>文字数は５００字以内に限定する</t>
-    <rPh sb="0" eb="3">
-      <t>モジスウ</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>ジイナイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ゲンテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>user_id</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -730,16 +707,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>いいねを押される度に+1されていく</t>
-    <rPh sb="4" eb="5">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>タビ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>お気に入り登録を行ったユーザ（有り体に言えば自分）を指す</t>
     <rPh sb="1" eb="2">
       <t>キ</t>
@@ -845,25 +812,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>一度以上気になる！が押されたら1、一度も押されなかったら0。0か1。</t>
-    <rPh sb="0" eb="4">
-      <t>イチドイジョウ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>イチド</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>マイコンテンツを登録したユーザのユーザIDを指す</t>
     <rPh sb="8" eb="10">
       <t>トウロク</t>
@@ -879,6 +827,127 @@
   </si>
   <si>
     <t>genre</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字数は50文字に限定する。</t>
+    <rPh sb="0" eb="3">
+      <t>モジスウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ゲンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトルは50字以内に限定する</t>
+    <rPh sb="7" eb="10">
+      <t>ジイナイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ゲンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字数は500字以内に限定する。シリーズ・巻単位で記録したい人のために、レビュー内容はNotNullはつけない。</t>
+    <rPh sb="0" eb="3">
+      <t>モジスウ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ジイナイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ゲンテイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>キロク</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いいねが押される度に+1されていく</t>
+    <rPh sb="4" eb="5">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>タビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字数は500字以内に限定する。画像が送られた場合、発言カラムはNULLになる。</t>
+    <rPh sb="0" eb="3">
+      <t>モジスウ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ジイナイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ゲンテイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>オク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ハツゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字数は200文字に限定する。</t>
+    <rPh sb="0" eb="3">
+      <t>モジスウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ゲンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>値は0または1。一度以上気になる！が押されたら1、一度も押されなかったら0。</t>
+    <rPh sb="0" eb="1">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>イチドイジョウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>イチド</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>オ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -932,7 +1001,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -979,13 +1048,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1010,7 +1105,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1351,7 +1452,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1405,7 +1506,7 @@
         <v>26</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>28</v>
@@ -1420,7 +1521,7 @@
         <v>23</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>28</v>
@@ -1432,10 +1533,10 @@
         <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>28</v>
@@ -1447,10 +1548,10 @@
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>28</v>
@@ -1462,10 +1563,10 @@
         <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>28</v>
@@ -1480,7 +1581,7 @@
         <v>24</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>28</v>
@@ -1495,7 +1596,7 @@
         <v>25</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>28</v>
@@ -1510,7 +1611,7 @@
         <v>27</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>28</v>
@@ -1522,10 +1623,10 @@
         <v>9</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>28</v>
@@ -1764,7 +1865,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -1786,7 +1887,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -1798,7 +1899,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -1846,10 +1947,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>43</v>
@@ -1877,7 +1978,7 @@
         <v>32</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>43</v>
@@ -1890,7 +1991,7 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -1902,10 +2003,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>43</v>
@@ -2301,7 +2402,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -2349,7 +2450,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>35</v>
@@ -2359,7 +2460,7 @@
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>42</v>
@@ -2380,7 +2481,7 @@
         <v>44</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>40</v>
@@ -2462,10 +2563,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>40</v>
@@ -2478,7 +2579,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L14" t="s">
         <v>47</v>
@@ -2507,7 +2608,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L15" t="s">
         <v>46</v>
@@ -2774,8 +2875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E335F36B-F1F9-49F0-826B-DDFCA2E3E38C}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2836,7 +2937,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -2884,10 +2985,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>41</v>
@@ -2921,7 +3022,7 @@
         <v>40</v>
       </c>
       <c r="E11" s="3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -2930,22 +3031,22 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>52</v>
+        <v>131</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>title VARCHAR (100),</v>
+        <v>title VARCHAR (50),</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>3</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>133</v>
+      <c r="B12" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>129</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>40</v>
@@ -2994,10 +3095,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>40</v>
@@ -3012,7 +3113,7 @@
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L14" t="e">
         <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
@@ -3024,10 +3125,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>40</v>
@@ -3040,7 +3141,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L15" t="e">
         <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -3052,13 +3153,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>77</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -3067,10 +3168,10 @@
         <v>42</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L16" t="e">
         <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
@@ -3091,7 +3192,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="L17" t="str">
-        <f t="shared" ref="L15:L29" si="0">C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L17:L29" si="0">C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3327,7 +3428,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3376,7 +3477,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -3388,7 +3489,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -3436,10 +3537,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>43</v>
@@ -3464,10 +3565,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>43</v>
@@ -3493,7 +3594,7 @@
         <v>32</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>43</v>
@@ -3506,7 +3607,7 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -3518,13 +3619,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>77</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -3533,10 +3634,10 @@
         <v>42</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
@@ -3548,10 +3649,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>43</v>
@@ -3566,7 +3667,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
@@ -3856,6 +3957,556 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BB964AA-EDE5-45E5-A69E-9550211D7D8F}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="95.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="19.2" x14ac:dyDescent="0.2">
+      <c r="A1" s="4"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45450</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table Review (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>review_id INTEGER ,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="L11" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>user_id INTEGER ,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>my_contents_id INTEGER ,</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="16.8" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" s="7"/>
+      <c r="J13" s="9"/>
+      <c r="L13" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v>contents_id INTEGER ,</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="3">
+        <v>50</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="L14" t="str">
+        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v>review VARCHAR (500),</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="10">
+        <v>500</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="L15" t="e">
+        <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="16.8" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="L16" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" ref="L15:L29" si="0">C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{764D4D26-1A13-48BD-A682-8C461CADC4C1}">
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3908,7 +4559,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -3920,7 +4571,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -3960,7 +4611,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table Review (</v>
+        <v>create table Good (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -3968,10 +4619,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>43</v>
@@ -3996,10 +4647,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>43</v>
@@ -4010,551 +4661,11 @@
       <c r="H11" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>user_id INTEGER ,</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>my_contents_id INTEGER ,</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="16.8" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I13" s="7"/>
-      <c r="J13" s="3"/>
-      <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>contents_id INTEGER ,</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>5</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="3">
-        <v>500</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>review VARCHAR (500),</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="16.8" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>6</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">date DATE </v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>7</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="L16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>8</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="L17" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
-        <v>9</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="L18" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
-        <v>10</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="L19" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
-        <v>11</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="L20" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
-        <v>12</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="L21" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
-        <v>13</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="L22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
-        <v>14</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="L23" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
-        <v>15</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="L24" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
-        <v>16</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="L25" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
-        <v>17</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="L26" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
-        <v>18</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="L27" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
-        <v>19</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="L28" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
-        <v>20</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="L29" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L30" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{764D4D26-1A13-48BD-A682-8C461CADC4C1}">
-  <dimension ref="A1:L30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="40" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="19.2" x14ac:dyDescent="0.2">
-      <c r="A1" s="4"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="5">
-        <v>45450</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L9" t="str">
-        <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table Good (</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>review_id INTEGER ,</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>2</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="I11" s="3">
         <v>0</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -4901,7 +5012,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -4914,7 +5025,7 @@
     <col min="7" max="7" width="7.21875" customWidth="1"/>
     <col min="8" max="8" width="9.44140625" customWidth="1"/>
     <col min="9" max="9" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="53.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="78.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.2" x14ac:dyDescent="0.2">
@@ -4931,7 +5042,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -4965,7 +5076,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -5013,10 +5124,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>43</v>
@@ -5041,10 +5152,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>43</v>
@@ -5067,10 +5178,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>43</v>
@@ -5093,10 +5204,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>39</v>
@@ -5109,7 +5220,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>56</v>
+        <v>134</v>
       </c>
       <c r="L13" t="str">
         <f t="shared" si="0"/>
@@ -5121,10 +5232,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>39</v>
@@ -5137,7 +5248,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="L14" t="str">
         <f t="shared" si="0"/>
@@ -5149,13 +5260,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -5164,10 +5275,10 @@
         <v>42</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L15" t="str">
         <f t="shared" si="0"/>
@@ -5466,7 +5577,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -5500,7 +5611,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -5551,7 +5662,7 @@
         <v>32</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>43</v>
@@ -5566,7 +5677,7 @@
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="L10" t="e">
         <f>C10&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -5578,10 +5689,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>43</v>
@@ -5594,7 +5705,7 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="L11" t="e">
         <f>#REF!&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -5940,14 +6051,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97415D3E-2CCA-4207-BA3B-ADD46DE8CC7F}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="5" width="19.33203125" customWidth="1"/>
-    <col min="10" max="10" width="64.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="69.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.2" x14ac:dyDescent="0.2">
@@ -5964,7 +6075,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -5998,7 +6109,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -6046,10 +6157,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>43</v>
@@ -6077,7 +6188,7 @@
         <v>32</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>43</v>
@@ -6089,7 +6200,7 @@
         <v>42</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -6104,13 +6215,13 @@
         <v>48</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E12" s="3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -6118,7 +6229,9 @@
         <v>42</v>
       </c>
       <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
+      <c r="J12" s="3" t="s">
+        <v>130</v>
+      </c>
       <c r="L12" t="e">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
         <v>#REF!</v>
@@ -6129,10 +6242,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>40</v>
@@ -6146,7 +6259,9 @@
         <v>42</v>
       </c>
       <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+      <c r="J13" s="3" t="s">
+        <v>135</v>
+      </c>
       <c r="L13" t="e">
         <f>#REF!&amp;" "&amp;D14&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
         <v>#REF!</v>
@@ -6157,10 +6272,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>43</v>
@@ -6175,7 +6290,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="L14" t="e">
         <f>C14&amp;" "&amp;#REF!&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>

--- a/doc/2_外部設計書/02_DB定義書_WAC.xlsx
+++ b/doc/2_外部設計書/02_DB定義書_WAC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A2\doc\2_外部設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96691E47-6E76-4526-8C23-B7CD2B1A7CFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8091AF29-15FF-4D9A-A2BC-7663C3CA9200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="143">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -319,17 +319,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>作者</t>
-    <rPh sb="0" eb="2">
-      <t>サクシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">author </t>
   </si>
   <si>
     <t>レビュー内容</t>
@@ -948,6 +938,71 @@
     <rPh sb="28" eb="29">
       <t>オ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>check</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>既読</t>
+    <rPh sb="0" eb="2">
+      <t>キドク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一度でもチャット画面に表示されたら1になる。一度も表示されていないものは0のまま。</t>
+    <rPh sb="0" eb="2">
+      <t>イチド</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>イチド</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロフィール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>profile</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字数は200字に制限する。登録しなくてもいいため、Not nullはつけない</t>
+    <rPh sb="0" eb="3">
+      <t>モジスウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セイゲン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>制作者</t>
+    <rPh sb="0" eb="3">
+      <t>セイサクシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>creator</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1001,7 +1056,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1074,6 +1129,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1105,13 +1169,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1452,7 +1516,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1506,7 +1570,7 @@
         <v>26</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>28</v>
@@ -1521,7 +1585,7 @@
         <v>23</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>28</v>
@@ -1533,10 +1597,10 @@
         <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>28</v>
@@ -1548,10 +1612,10 @@
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>28</v>
@@ -1563,10 +1627,10 @@
         <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>28</v>
@@ -1581,7 +1645,7 @@
         <v>24</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>28</v>
@@ -1596,7 +1660,7 @@
         <v>25</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>28</v>
@@ -1611,7 +1675,7 @@
         <v>27</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>28</v>
@@ -1623,10 +1687,10 @@
         <v>9</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>28</v>
@@ -1865,7 +1929,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -1887,7 +1951,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -1899,7 +1963,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -1947,10 +2011,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>43</v>
@@ -1978,7 +2042,7 @@
         <v>32</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>43</v>
@@ -1991,7 +2055,7 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -2003,10 +2067,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>43</v>
@@ -2337,7 +2401,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2402,7 +2466,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -2450,7 +2514,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>35</v>
@@ -2460,7 +2524,7 @@
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>42</v>
@@ -2481,7 +2545,7 @@
         <v>44</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>40</v>
@@ -2563,10 +2627,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>40</v>
@@ -2579,7 +2643,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L14" t="s">
         <v>47</v>
@@ -2608,7 +2672,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L15" t="s">
         <v>46</v>
@@ -2618,14 +2682,25 @@
       <c r="A16" s="3">
         <v>7</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="3">
+        <v>200</v>
+      </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
+      <c r="J16" s="3" t="s">
+        <v>140</v>
+      </c>
       <c r="L16" t="s">
         <v>47</v>
       </c>
@@ -2875,8 +2950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E335F36B-F1F9-49F0-826B-DDFCA2E3E38C}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2937,7 +3012,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -2985,10 +3060,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>41</v>
@@ -3016,7 +3091,7 @@
         <v>48</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>40</v>
@@ -3031,7 +3106,7 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -3043,10 +3118,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>40</v>
@@ -3063,7 +3138,7 @@
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>author  VARCHAR (50),</v>
+        <v>creator VARCHAR (50),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -3071,10 +3146,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>49</v>
+        <v>141</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>51</v>
+        <v>142</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>40</v>
@@ -3095,10 +3170,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>40</v>
@@ -3113,7 +3188,7 @@
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L14" t="e">
         <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
@@ -3125,10 +3200,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>40</v>
@@ -3141,7 +3216,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L15" t="e">
         <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -3153,13 +3228,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -3168,10 +3243,10 @@
         <v>42</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L16" t="e">
         <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
@@ -3477,7 +3552,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -3489,7 +3564,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -3537,10 +3612,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>43</v>
@@ -3565,10 +3640,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>43</v>
@@ -3594,7 +3669,7 @@
         <v>32</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>43</v>
@@ -3607,7 +3682,7 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -3619,13 +3694,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -3634,10 +3709,10 @@
         <v>42</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
@@ -3649,10 +3724,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>43</v>
@@ -3667,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
@@ -4009,7 +4084,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -4021,7 +4096,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -4069,10 +4144,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>43</v>
@@ -4100,7 +4175,7 @@
         <v>32</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>43</v>
@@ -4113,7 +4188,7 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -4125,10 +4200,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>43</v>
@@ -4151,22 +4226,22 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D13" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9" t="s">
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8" t="s">
         <v>42</v>
       </c>
       <c r="I13" s="7"/>
-      <c r="J13" s="9"/>
+      <c r="J13" s="8"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
         <v>contents_id INTEGER ,</v>
@@ -4176,11 +4251,11 @@
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>101</v>
+      <c r="C14" s="6" t="s">
+        <v>99</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>40</v>
@@ -4195,7 +4270,7 @@
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L14" t="str">
         <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
@@ -4207,23 +4282,23 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="9">
         <v>500</v>
       </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10" t="s">
-        <v>132</v>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9" t="s">
+        <v>130</v>
       </c>
       <c r="L15" t="e">
         <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -4235,13 +4310,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -4250,10 +4325,10 @@
         <v>42</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L16" t="e">
         <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
@@ -4274,7 +4349,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="L17" t="str">
-        <f t="shared" ref="L15:L29" si="0">C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L17:L29" si="0">C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4559,7 +4634,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -4571,7 +4646,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -4619,10 +4694,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>43</v>
@@ -4647,10 +4722,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>43</v>
@@ -4665,7 +4740,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -5012,7 +5087,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5042,7 +5117,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -5076,7 +5151,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -5124,10 +5199,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>43</v>
@@ -5152,10 +5227,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>43</v>
@@ -5178,10 +5253,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>43</v>
@@ -5204,10 +5279,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>39</v>
@@ -5220,7 +5295,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="L13" t="str">
         <f t="shared" si="0"/>
@@ -5232,10 +5307,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>39</v>
@@ -5248,7 +5323,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L14" t="str">
         <f t="shared" si="0"/>
@@ -5260,13 +5335,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -5275,32 +5350,44 @@
         <v>42</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L15" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">send_time TIMESTAMP </v>
+        <v>send_time TIMESTAMP ,</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>7</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
+      <c r="H16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>137</v>
+      </c>
       <c r="L16" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <v xml:space="preserve">check INTEGER </v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -5577,7 +5664,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -5611,7 +5698,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -5662,7 +5749,7 @@
         <v>32</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>43</v>
@@ -5677,7 +5764,7 @@
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L10" t="e">
         <f>C10&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -5689,10 +5776,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>43</v>
@@ -5705,7 +5792,7 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L11" t="e">
         <f>#REF!&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -6051,7 +6138,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97415D3E-2CCA-4207-BA3B-ADD46DE8CC7F}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
@@ -6075,7 +6162,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -6109,7 +6196,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -6157,10 +6244,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>43</v>
@@ -6188,7 +6275,7 @@
         <v>32</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>43</v>
@@ -6200,7 +6287,7 @@
         <v>42</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -6215,7 +6302,7 @@
         <v>48</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>40</v>
@@ -6230,7 +6317,7 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L12" t="e">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -6242,10 +6329,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>40</v>
@@ -6260,7 +6347,7 @@
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L13" t="e">
         <f>#REF!&amp;" "&amp;D14&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
@@ -6272,10 +6359,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>43</v>
@@ -6290,7 +6377,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L14" t="e">
         <f>C14&amp;" "&amp;#REF!&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>

--- a/doc/2_外部設計書/02_DB定義書_WAC.xlsx
+++ b/doc/2_外部設計書/02_DB定義書_WAC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A2\doc\2_外部設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8091AF29-15FF-4D9A-A2BC-7663C3CA9200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{842111FD-0046-4E0D-9ED8-445F207D8E64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="146">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -457,10 +457,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>(CURRENT_DATE)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>自動で日付を入力する</t>
     <rPh sb="0" eb="2">
       <t>ジドウ</t>
@@ -628,10 +624,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>NOW()</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>自動で日時を入力する</t>
     <rPh sb="0" eb="2">
       <t>ジドウ</t>
@@ -995,14 +987,57 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>制作者</t>
+    <t>creator</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除フラグ</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>delete_flag</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基本的に1で登録。アカウントが削除された場合、0にする。1＝生きている、0＝削除済み</t>
+    <rPh sb="0" eb="3">
+      <t>キホンテキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CURRENT_TIMESTAMP</t>
+  </si>
+  <si>
+    <t>CURRENT_DATE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>製作者</t>
     <rPh sb="0" eb="3">
       <t>セイサクシャ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>creator</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1175,7 +1210,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1570,7 +1605,7 @@
         <v>26</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>28</v>
@@ -1585,7 +1620,7 @@
         <v>23</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>28</v>
@@ -1600,7 +1635,7 @@
         <v>59</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>28</v>
@@ -1615,7 +1650,7 @@
         <v>60</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>28</v>
@@ -1630,7 +1665,7 @@
         <v>51</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>28</v>
@@ -1645,7 +1680,7 @@
         <v>24</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>28</v>
@@ -1660,7 +1695,7 @@
         <v>25</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>28</v>
@@ -1675,7 +1710,7 @@
         <v>27</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>28</v>
@@ -1690,7 +1725,7 @@
         <v>61</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>28</v>
@@ -1963,7 +1998,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -2011,10 +2046,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>102</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>43</v>
@@ -2055,7 +2090,7 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -2067,10 +2102,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>43</v>
@@ -2400,8 +2435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2466,7 +2501,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -2643,7 +2678,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L14" t="s">
         <v>47</v>
@@ -2683,10 +2718,10 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>40</v>
@@ -2699,7 +2734,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L16" t="s">
         <v>47</v>
@@ -2709,15 +2744,27 @@
       <c r="A17" s="3">
         <v>8</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
+      <c r="H17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17" s="3">
+        <v>1</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
@@ -2950,8 +2997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E335F36B-F1F9-49F0-826B-DDFCA2E3E38C}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3012,7 +3059,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -3063,7 +3110,7 @@
         <v>69</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>41</v>
@@ -3106,7 +3153,7 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -3118,10 +3165,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>40</v>
@@ -3146,10 +3193,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>40</v>
@@ -3188,7 +3235,7 @@
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="L14" t="e">
         <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
@@ -3216,7 +3263,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L15" t="e">
         <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -3243,10 +3290,10 @@
         <v>42</v>
       </c>
       <c r="I16" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="J16" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="L16" t="e">
         <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
@@ -3503,7 +3550,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3564,7 +3611,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -3612,10 +3659,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>43</v>
@@ -3643,7 +3690,7 @@
         <v>69</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>43</v>
@@ -3682,7 +3729,7 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -3709,10 +3756,10 @@
         <v>42</v>
       </c>
       <c r="I13" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="J13" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
@@ -3724,10 +3771,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>43</v>
@@ -3742,7 +3789,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
@@ -4035,7 +4082,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -4096,7 +4143,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -4144,10 +4191,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>84</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>43</v>
@@ -4188,7 +4235,7 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -4200,10 +4247,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>43</v>
@@ -4229,7 +4276,7 @@
         <v>69</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>43</v>
@@ -4255,7 +4302,7 @@
         <v>48</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>40</v>
@@ -4270,7 +4317,7 @@
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L14" t="str">
         <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
@@ -4298,7 +4345,7 @@
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
       <c r="J15" s="9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L15" t="e">
         <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -4325,10 +4372,10 @@
         <v>42</v>
       </c>
       <c r="I16" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="J16" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="L16" t="e">
         <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
@@ -4646,7 +4693,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -4694,10 +4741,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>84</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>43</v>
@@ -4740,7 +4787,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -5087,7 +5134,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5099,7 +5146,7 @@
     <col min="6" max="6" width="9.77734375" customWidth="1"/>
     <col min="7" max="7" width="7.21875" customWidth="1"/>
     <col min="8" max="8" width="9.44140625" customWidth="1"/>
-    <col min="9" max="9" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="78.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5151,7 +5198,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -5199,10 +5246,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>43</v>
@@ -5227,10 +5274,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>43</v>
@@ -5253,10 +5300,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>43</v>
@@ -5279,10 +5326,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>39</v>
@@ -5295,7 +5342,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L13" t="str">
         <f t="shared" si="0"/>
@@ -5323,25 +5370,25 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L14" t="str">
         <f t="shared" si="0"/>
         <v>image VARCHAR (100),</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="16.8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>105</v>
-      </c>
       <c r="D15" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -5349,11 +5396,11 @@
       <c r="H15" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I15" s="7" t="s">
-        <v>107</v>
+      <c r="I15" t="s">
+        <v>143</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L15" t="str">
         <f t="shared" si="0"/>
@@ -5365,10 +5412,10 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>43</v>
@@ -5383,7 +5430,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L16" t="str">
         <f t="shared" si="0"/>
@@ -5698,7 +5745,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -5764,7 +5811,7 @@
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L10" t="e">
         <f>C10&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -5776,10 +5823,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>43</v>
@@ -5792,7 +5839,7 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L11" t="e">
         <f>#REF!&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -6196,7 +6243,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -6244,10 +6291,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>43</v>
@@ -6287,7 +6334,7 @@
         <v>42</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -6302,7 +6349,7 @@
         <v>48</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>40</v>
@@ -6317,7 +6364,7 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L12" t="e">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -6329,10 +6376,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>40</v>
@@ -6347,7 +6394,7 @@
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L13" t="e">
         <f>#REF!&amp;" "&amp;D14&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
@@ -6359,10 +6406,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>43</v>
@@ -6377,7 +6424,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="L14" t="e">
         <f>C14&amp;" "&amp;#REF!&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>

--- a/doc/2_外部設計書/02_DB定義書_WAC.xlsx
+++ b/doc/2_外部設計書/02_DB定義書_WAC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A2\doc\2_外部設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{842111FD-0046-4E0D-9ED8-445F207D8E64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B637DA42-8340-4432-8695-D3C07C01F033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="144">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -333,13 +333,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>登録日</t>
-    <rPh sb="0" eb="3">
-      <t>トウロクビ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>user_id</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -445,28 +438,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>date</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>image</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DATE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>自動で日付を入力する</t>
-    <rPh sb="0" eb="2">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヒヅケ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ニュウリョク</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -602,38 +574,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>TIMESTAMP</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>送信日時</t>
-    <rPh sb="0" eb="2">
-      <t>ソウシン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ニチジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>send_time</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>user_id_favorite</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>自動で日時を入力する</t>
-    <rPh sb="0" eb="2">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ニチジ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ニュウリョク</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -761,16 +702,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>レビューを投稿したユーザを指す</t>
-    <rPh sb="5" eb="7">
-      <t>トウコウ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>サ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ポストに投稿したユーザのユーザIDを指す</t>
     <rPh sb="4" eb="6">
       <t>トウコウ</t>
@@ -963,14 +894,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>プロフィール</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>profile</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>文字数は200字に制限する。登録しなくてもいいため、Not nullはつけない</t>
     <rPh sb="0" eb="3">
       <t>モジスウ</t>
@@ -991,17 +914,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>削除フラグ</t>
-    <rPh sb="0" eb="2">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>delete_flag</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>基本的に1で登録。アカウントが削除された場合、0にする。1＝生きている、0＝削除済み</t>
     <rPh sb="0" eb="3">
       <t>キホンテキ</t>
@@ -1030,13 +942,81 @@
     <t>CURRENT_TIMESTAMP</t>
   </si>
   <si>
-    <t>CURRENT_DATE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>製作者</t>
     <rPh sb="0" eb="3">
       <t>セイサクシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自己紹介文</t>
+    <rPh sb="0" eb="5">
+      <t>ジコショウカイブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>introduction</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>flag</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フラグ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レビューを投稿したユーザを指す。ユーザテーブルのユーザIDと同じ。</t>
+    <rPh sb="5" eb="7">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>オナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レビュー対象のコンテンツを指す。コンテンツテーブルのコンテンツIDと同じ。</t>
+    <rPh sb="4" eb="6">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レビュー対象のマイコンテンツを指す。マイコンテンツテーブルのマイコンテンツIDと同じ。</t>
+    <rPh sb="4" eb="6">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>created_at</t>
+  </si>
+  <si>
+    <t>updated_at</t>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
+  </si>
+  <si>
+    <t>登録日時</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新日時</t>
+    <rPh sb="0" eb="4">
+      <t>コウシンニチジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1551,7 +1531,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1605,7 +1585,7 @@
         <v>26</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>28</v>
@@ -1620,7 +1600,7 @@
         <v>23</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>28</v>
@@ -1632,10 +1612,10 @@
         <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>28</v>
@@ -1647,10 +1627,10 @@
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>28</v>
@@ -1665,7 +1645,7 @@
         <v>51</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>28</v>
@@ -1680,7 +1660,7 @@
         <v>24</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>28</v>
@@ -1695,7 +1675,7 @@
         <v>25</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>28</v>
@@ -1710,7 +1690,7 @@
         <v>27</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>28</v>
@@ -1722,10 +1702,10 @@
         <v>9</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>28</v>
@@ -1941,12 +1921,13 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="5" width="19.33203125" customWidth="1"/>
+    <col min="9" max="9" width="22.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="53.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1964,7 +1945,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -1986,7 +1967,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -1998,7 +1979,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -2046,10 +2027,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>43</v>
@@ -2077,7 +2058,7 @@
         <v>32</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>43</v>
@@ -2090,11 +2071,11 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">user_id INTEGER </v>
+        <v>user_id INTEGER ,</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -2102,10 +2083,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>43</v>
@@ -2127,28 +2108,48 @@
       <c r="A13" s="3">
         <v>4</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C13" t="s">
+        <v>139</v>
+      </c>
+      <c r="D13" t="s">
+        <v>141</v>
+      </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
+      <c r="H13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" t="s">
+        <v>130</v>
+      </c>
       <c r="J13" s="3"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C14" t="s">
+        <v>140</v>
+      </c>
+      <c r="D14" t="s">
+        <v>141</v>
+      </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
+      <c r="H14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I14" t="s">
+        <v>130</v>
+      </c>
       <c r="J14" s="3"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -2435,8 +2436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2448,7 +2449,7 @@
     <col min="6" max="6" width="9.77734375" customWidth="1"/>
     <col min="7" max="7" width="7.21875" customWidth="1"/>
     <col min="8" max="8" width="9.44140625" customWidth="1"/>
-    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="76.88671875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="26.77734375" bestFit="1" customWidth="1"/>
   </cols>
@@ -2501,7 +2502,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -2549,7 +2550,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>35</v>
@@ -2559,7 +2560,7 @@
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>42</v>
@@ -2580,7 +2581,7 @@
         <v>44</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>40</v>
@@ -2662,10 +2663,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>40</v>
@@ -2678,7 +2679,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="L14" t="s">
         <v>47</v>
@@ -2707,7 +2708,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L15" t="s">
         <v>46</v>
@@ -2718,10 +2719,10 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>40</v>
@@ -2734,7 +2735,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="L16" t="s">
         <v>47</v>
@@ -2745,10 +2746,10 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>43</v>
@@ -2763,43 +2764,63 @@
         <v>1</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>9</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C18" t="s">
+        <v>139</v>
+      </c>
+      <c r="D18" t="s">
+        <v>141</v>
+      </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
+      <c r="H18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I18" t="s">
+        <v>130</v>
+      </c>
       <c r="J18" s="3"/>
       <c r="L18" t="str">
         <f t="shared" ref="L18:L29" si="0">C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v>created_at TIMESTAMP ,</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>10</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C19" t="s">
+        <v>140</v>
+      </c>
+      <c r="D19" t="s">
+        <v>141</v>
+      </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
+      <c r="H19" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I19" t="s">
+        <v>130</v>
+      </c>
       <c r="J19" s="3"/>
       <c r="L19" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <v xml:space="preserve">updated_at TIMESTAMP </v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -2998,7 +3019,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3007,7 +3028,7 @@
     <col min="3" max="3" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="41.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3059,7 +3080,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -3107,10 +3128,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>41</v>
@@ -3153,7 +3174,7 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -3165,10 +3186,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>40</v>
@@ -3193,10 +3214,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>40</v>
@@ -3217,10 +3238,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>40</v>
@@ -3235,7 +3256,7 @@
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="L14" t="e">
         <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
@@ -3247,10 +3268,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>40</v>
@@ -3263,25 +3284,25 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="L15" t="e">
         <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="16.8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>73</v>
+        <v>142</v>
+      </c>
+      <c r="C16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D16" t="s">
+        <v>141</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -3289,12 +3310,10 @@
       <c r="H16" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I16" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>74</v>
-      </c>
+      <c r="I16" t="s">
+        <v>130</v>
+      </c>
+      <c r="J16" s="3"/>
       <c r="L16" t="e">
         <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
         <v>#REF!</v>
@@ -3304,18 +3323,28 @@
       <c r="A17" s="3">
         <v>8</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C17" t="s">
+        <v>140</v>
+      </c>
+      <c r="D17" t="s">
+        <v>141</v>
+      </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
+      <c r="H17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17" t="s">
+        <v>130</v>
+      </c>
       <c r="J17" s="3"/>
       <c r="L17" t="str">
         <f t="shared" ref="L17:L29" si="0">C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v xml:space="preserve">updated_at TIMESTAMP </v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -3550,7 +3579,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="B14" sqref="B14:J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3559,7 +3588,7 @@
     <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="46.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3599,7 +3628,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -3611,7 +3640,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -3659,10 +3688,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>43</v>
@@ -3687,10 +3716,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>43</v>
@@ -3716,7 +3745,7 @@
         <v>32</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>43</v>
@@ -3729,25 +3758,25 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>user_id INTEGER ,</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="16.8" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+      <c r="L12" t="e">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -3755,15 +3784,15 @@
       <c r="H13" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I13" s="7" t="s">
-        <v>144</v>
+      <c r="I13" s="3">
+        <v>0</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>date DATE ,</v>
+        <v>76</v>
+      </c>
+      <c r="L13" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -3771,13 +3800,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>43</v>
+        <v>142</v>
+      </c>
+      <c r="C14" t="s">
+        <v>139</v>
+      </c>
+      <c r="D14" t="s">
+        <v>141</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -3785,33 +3814,41 @@
       <c r="H14" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>80</v>
-      </c>
+      <c r="I14" t="s">
+        <v>130</v>
+      </c>
+      <c r="J14" s="3"/>
       <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">status INTEGER </v>
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v>status INTEGER ,</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C15" t="s">
+        <v>140</v>
+      </c>
+      <c r="D15" t="s">
+        <v>141</v>
+      </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
+      <c r="H15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15" t="s">
+        <v>130</v>
+      </c>
       <c r="J15" s="3"/>
-      <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+      <c r="L15" t="e">
+        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -3827,9 +3864,9 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
-      <c r="L16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+      <c r="L16" t="e">
+        <f>#REF!&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -3846,7 +3883,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="L17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="L15:L29" si="0">C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4082,7 +4119,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -4091,7 +4128,7 @@
     <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="95.5546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4131,7 +4168,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -4143,7 +4180,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -4191,10 +4228,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>43</v>
@@ -4222,7 +4259,7 @@
         <v>32</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>43</v>
@@ -4235,7 +4272,7 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -4247,10 +4284,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>43</v>
@@ -4262,7 +4299,9 @@
         <v>42</v>
       </c>
       <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
+      <c r="J12" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
         <v>my_contents_id INTEGER ,</v>
@@ -4273,10 +4312,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>43</v>
@@ -4288,7 +4327,9 @@
         <v>42</v>
       </c>
       <c r="I13" s="7"/>
-      <c r="J13" s="8"/>
+      <c r="J13" s="3" t="s">
+        <v>137</v>
+      </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
         <v>contents_id INTEGER ,</v>
@@ -4302,7 +4343,7 @@
         <v>48</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>40</v>
@@ -4317,7 +4358,7 @@
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="L14" t="str">
         <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
@@ -4331,39 +4372,39 @@
       <c r="B15" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>62</v>
+      <c r="C15" s="8" t="s">
+        <v>61</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="6">
         <v>500</v>
       </c>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
       <c r="J15" s="9" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="L15" t="e">
         <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="16.8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>52</v>
+        <v>142</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>73</v>
+        <v>141</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -4371,12 +4412,10 @@
       <c r="H16" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I16" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>74</v>
-      </c>
+      <c r="I16" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="J16" s="3"/>
       <c r="L16" t="e">
         <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
         <v>#REF!</v>
@@ -4386,18 +4425,28 @@
       <c r="A17" s="3">
         <v>8</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>141</v>
+      </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
+      <c r="H17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>130</v>
+      </c>
       <c r="J17" s="3"/>
       <c r="L17" t="str">
         <f t="shared" ref="L17:L29" si="0">C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v xml:space="preserve">updated_at TIMESTAMP </v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -4641,7 +4690,7 @@
     <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="40" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4693,7 +4742,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -4741,10 +4790,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>43</v>
@@ -4772,7 +4821,7 @@
         <v>51</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>43</v>
@@ -4787,61 +4836,81 @@
         <v>0</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">good INTEGER </v>
+        <v>good INTEGER ,</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>3</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>141</v>
+      </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>130</v>
+      </c>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="16.8" x14ac:dyDescent="0.2">
+        <v>created_at TIMESTAMP ,</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>141</v>
+      </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="7"/>
+      <c r="H13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>130</v>
+      </c>
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v xml:space="preserve">updated_at TIMESTAMP </v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
       <c r="J14" s="3"/>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
@@ -5133,8 +5202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA9F41C7-F4D7-4E4E-A148-D2DA2898BE2B}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5164,7 +5233,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -5198,7 +5267,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -5246,10 +5315,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>43</v>
@@ -5274,10 +5343,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>43</v>
@@ -5300,10 +5369,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>43</v>
@@ -5326,10 +5395,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>39</v>
@@ -5342,7 +5411,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="L13" t="str">
         <f t="shared" si="0"/>
@@ -5354,10 +5423,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>39</v>
@@ -5370,11 +5439,11 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="L14" t="str">
-        <f t="shared" si="0"/>
-        <v>image VARCHAR (100),</v>
+        <v>111</v>
+      </c>
+      <c r="L14" t="e">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -5382,13 +5451,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>102</v>
+        <v>43</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -5396,15 +5465,15 @@
       <c r="H15" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I15" t="s">
-        <v>143</v>
+      <c r="I15" s="3">
+        <v>0</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="L15" t="str">
-        <f t="shared" si="0"/>
-        <v>send_time TIMESTAMP ,</v>
+        <v>126</v>
+      </c>
+      <c r="L15" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -5412,13 +5481,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>43</v>
+        <v>141</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -5426,33 +5495,41 @@
       <c r="H16" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I16" s="3">
-        <v>0</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>135</v>
-      </c>
+      <c r="I16" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="J16" s="3"/>
       <c r="L16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">check INTEGER </v>
+        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v>check INTEGER ,</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>8</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>141</v>
+      </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
+      <c r="H17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>130</v>
+      </c>
       <c r="J17" s="3"/>
       <c r="L17" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <v>created_at TIMESTAMP ,</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -5469,8 +5546,8 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="L18" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">updated_at TIMESTAMP </v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -5687,13 +5764,14 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.88671875" customWidth="1"/>
     <col min="2" max="5" width="19.33203125" customWidth="1"/>
+    <col min="9" max="9" width="22.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="56.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5711,7 +5789,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -5745,7 +5823,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -5796,7 +5874,7 @@
         <v>32</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>43</v>
@@ -5811,7 +5889,7 @@
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="L10" t="e">
         <f>C10&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -5823,10 +5901,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>43</v>
@@ -5839,7 +5917,7 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="L11" t="e">
         <f>#REF!&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -5850,14 +5928,24 @@
       <c r="A12" s="3">
         <v>3</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C12" t="s">
+        <v>139</v>
+      </c>
+      <c r="D12" t="s">
+        <v>141</v>
+      </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" t="s">
+        <v>130</v>
+      </c>
       <c r="J12" s="3"/>
       <c r="L12" t="e">
         <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -5868,18 +5956,28 @@
       <c r="A13" s="3">
         <v>4</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C13" t="s">
+        <v>140</v>
+      </c>
+      <c r="D13" t="s">
+        <v>141</v>
+      </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
+      <c r="H13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" t="s">
+        <v>130</v>
+      </c>
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f t="shared" ref="L13:L29" si="0">C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v xml:space="preserve">updated_at TIMESTAMP </v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -6186,12 +6284,13 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="B15" sqref="B15:J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="5" width="19.33203125" customWidth="1"/>
+    <col min="9" max="9" width="22.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="69.5546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6209,7 +6308,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -6243,7 +6342,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -6291,10 +6390,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>43</v>
@@ -6322,7 +6421,7 @@
         <v>32</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>43</v>
@@ -6334,7 +6433,7 @@
         <v>42</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -6349,7 +6448,7 @@
         <v>48</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>40</v>
@@ -6364,7 +6463,7 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="L12" t="e">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -6376,10 +6475,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>40</v>
@@ -6394,7 +6493,7 @@
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="L13" t="e">
         <f>#REF!&amp;" "&amp;D14&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
@@ -6406,10 +6505,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>99</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>43</v>
@@ -6424,7 +6523,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="L14" t="e">
         <f>C14&amp;" "&amp;#REF!&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
@@ -6435,35 +6534,56 @@
       <c r="A15" s="3">
         <v>6</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C15" t="s">
+        <v>139</v>
+      </c>
+      <c r="D15" t="s">
+        <v>141</v>
+      </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
+      <c r="H15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15" t="s">
+        <v>130</v>
+      </c>
       <c r="J15" s="3"/>
       <c r="L15" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <v>created_at TIMESTAMP ,</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>7</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C16" t="s">
+        <v>140</v>
+      </c>
+      <c r="D16" t="s">
+        <v>141</v>
+      </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
+      <c r="H16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I16" t="s">
+        <v>130</v>
+      </c>
       <c r="J16" s="3"/>
       <c r="L16" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <v xml:space="preserve">updated_at TIMESTAMP </v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">

--- a/doc/2_外部設計書/02_DB定義書_WAC.xlsx
+++ b/doc/2_外部設計書/02_DB定義書_WAC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A2\doc\2_外部設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B637DA42-8340-4432-8695-D3C07C01F033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D73BE113-E239-4060-8C3D-03B94B30C66A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Contents" sheetId="3" r:id="rId3"/>
     <sheet name="My_contents" sheetId="4" r:id="rId4"/>
     <sheet name="Review" sheetId="14" r:id="rId5"/>
-    <sheet name="Good" sheetId="15" r:id="rId6"/>
+    <sheet name="Good_manage" sheetId="17" r:id="rId6"/>
     <sheet name="Chat" sheetId="7" r:id="rId7"/>
     <sheet name="Favorite_user" sheetId="8" r:id="rId8"/>
     <sheet name="Post" sheetId="9" r:id="rId9"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="150">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -1018,6 +1018,55 @@
     <rPh sb="0" eb="4">
       <t>コウシンニチジ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>丸山</t>
+    <rPh sb="0" eb="2">
+      <t>マルヤマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いいねをつけたユーザのユーザID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いいね管理</t>
+    <rPh sb="3" eb="5">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ自身がレビューIDのレビューにいいねが押されているか否かを意味する。
+いいねが押されなかったら0のまま、いいねが押されたら1にする。0か1のみ。</t>
+    <rPh sb="3" eb="5">
+      <t>ジシン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>イナ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>イミ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いいねをつけたレビューのレビューID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Good_manage</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1159,7 +1208,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1192,6 +1241,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2437,7 +2489,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:J19"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3883,7 +3935,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="L17" t="str">
-        <f t="shared" ref="L15:L29" si="0">C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L17:L29" si="0">C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4119,7 +4171,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -4361,7 +4413,7 @@
         <v>117</v>
       </c>
       <c r="L14" t="str">
-        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
         <v>review VARCHAR (500),</v>
       </c>
     </row>
@@ -4389,7 +4441,7 @@
         <v>119</v>
       </c>
       <c r="L15" t="e">
-        <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
         <v>#REF!</v>
       </c>
     </row>
@@ -4398,13 +4450,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>142</v>
+        <v>51</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>139</v>
+        <v>57</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>141</v>
+        <v>43</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -4412,12 +4464,14 @@
       <c r="H16" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I16" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="J16" s="3"/>
+      <c r="I16" s="3">
+        <v>0</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>120</v>
+      </c>
       <c r="L16" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
         <v>#REF!</v>
       </c>
     </row>
@@ -4426,10 +4480,10 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>141</v>
@@ -4444,27 +4498,37 @@
         <v>130</v>
       </c>
       <c r="J17" s="3"/>
-      <c r="L17" t="str">
-        <f t="shared" ref="L17:L29" si="0">C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">updated_at TIMESTAMP </v>
+      <c r="L17" t="e">
+        <f>C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>9</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>141</v>
+      </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
+      <c r="H18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>130</v>
+      </c>
       <c r="J18" s="3"/>
-      <c r="L18" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+      <c r="L18" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -4481,7 +4545,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="L19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="L17:L29" si="0">C19&amp;" "&amp;D19&amp;" "&amp;IF(E19&lt;&gt;"","("&amp;E19&amp;")","")&amp;IF(C20&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4677,19 +4741,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{764D4D26-1A13-48BD-A682-8C461CADC4C1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE81DF62-9962-4662-9621-11A937BFA3D5}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="40" bestFit="1" customWidth="1"/>
   </cols>
@@ -4708,7 +4772,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>29</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -4722,7 +4786,7 @@
         <v>3</v>
       </c>
       <c r="E3" s="5">
-        <v>45450</v>
+        <v>45455</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -4730,7 +4794,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>51</v>
+        <v>146</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -4742,7 +4806,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>103</v>
+        <v>149</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -4782,7 +4846,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table Good (</v>
+        <v>create table Good_manage (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -4807,9 +4871,11 @@
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
+      <c r="J10" s="3" t="s">
+        <v>148</v>
+      </c>
       <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
         <v>review_id INTEGER ,</v>
       </c>
     </row>
@@ -4818,10 +4884,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>43</v>
@@ -4832,29 +4898,27 @@
       <c r="H11" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I11" s="3">
-        <v>0</v>
-      </c>
+      <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>good INTEGER ,</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>Good INTEGER ,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>142</v>
+        <v>51</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>139</v>
+        <v>103</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>141</v>
+        <v>43</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -4862,12 +4926,14 @@
       <c r="H12" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="J12" s="3"/>
+      <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>147</v>
+      </c>
       <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
         <v>created_at TIMESTAMP ,</v>
       </c>
     </row>
@@ -4876,10 +4942,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>141</v>
@@ -4894,27 +4960,37 @@
         <v>130</v>
       </c>
       <c r="J13" s="3"/>
-      <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">updated_at TIMESTAMP </v>
+      <c r="L13" t="e">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
+      <c r="B14" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>130</v>
+      </c>
       <c r="J14" s="3"/>
-      <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+      <c r="L14" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="16.8" x14ac:dyDescent="0.2">
@@ -5202,7 +5278,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA9F41C7-F4D7-4E4E-A148-D2DA2898BE2B}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>

--- a/doc/2_外部設計書/02_DB定義書_WAC.xlsx
+++ b/doc/2_外部設計書/02_DB定義書_WAC.xlsx
@@ -8,21 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A2\doc\2_外部設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D73BE113-E239-4060-8C3D-03B94B30C66A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E0AEFD-3B06-406C-82B7-3D979E7282B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
-    <sheet name="User" sheetId="2" r:id="rId2"/>
-    <sheet name="Contents" sheetId="3" r:id="rId3"/>
-    <sheet name="My_contents" sheetId="4" r:id="rId4"/>
-    <sheet name="Review" sheetId="14" r:id="rId5"/>
-    <sheet name="Good_manage" sheetId="17" r:id="rId6"/>
-    <sheet name="Chat" sheetId="7" r:id="rId7"/>
-    <sheet name="Favorite_user" sheetId="8" r:id="rId8"/>
-    <sheet name="Post" sheetId="9" r:id="rId9"/>
-    <sheet name="Post_receive" sheetId="16" r:id="rId10"/>
+    <sheet name="user" sheetId="2" r:id="rId2"/>
+    <sheet name="contents" sheetId="3" r:id="rId3"/>
+    <sheet name="my_contents" sheetId="4" r:id="rId4"/>
+    <sheet name="review" sheetId="14" r:id="rId5"/>
+    <sheet name="good" sheetId="17" r:id="rId6"/>
+    <sheet name="chat" sheetId="7" r:id="rId7"/>
+    <sheet name="favorite_user" sheetId="8" r:id="rId8"/>
+    <sheet name="post" sheetId="9" r:id="rId9"/>
+    <sheet name="post_receive" sheetId="16" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="151">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -472,10 +472,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Review</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>レビューID</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -578,35 +574,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Post_receive</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Post</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Favorite_user</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Chat</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Good</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>My_contents</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Contents</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>User</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -756,16 +724,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>タイトルは50字以内に限定する</t>
-    <rPh sb="7" eb="10">
-      <t>ジイナイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ゲンテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>文字数は500字以内に限定する。シリーズ・巻単位で記録したい人のために、レビュー内容はNotNullはつけない。</t>
     <rPh sb="0" eb="3">
       <t>モジスウ</t>
@@ -988,13 +946,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>レビュー対象のマイコンテンツを指す。マイコンテンツテーブルのマイコンテンツIDと同じ。</t>
-    <rPh sb="4" eb="6">
-      <t>タイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>created_at</t>
   </si>
   <si>
@@ -1029,13 +980,6 @@
   </si>
   <si>
     <t>いいねをつけたユーザのユーザID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>いいね管理</t>
-    <rPh sb="3" eb="5">
-      <t>カンリ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1066,7 +1010,94 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Good_manage</t>
+    <t>DAOで今の時間をとってくる</t>
+  </si>
+  <si>
+    <t>DAOで今の時間をとってくる</t>
+    <rPh sb="4" eb="5">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>contents</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>my_contents</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>chat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>favorite_user</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>post_receive</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※更新する機能がないテーブルについては更新日時カラムを削除
+登録日時は、変えてはいけないため、DAOで日時を取得する。</t>
+    <rPh sb="1" eb="3">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="30" eb="34">
+      <t>トウロクニチジ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ふりがな</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50字以内に限定する</t>
+    <rPh sb="2" eb="5">
+      <t>ジイナイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ゲンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ruby</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1120,7 +1151,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1202,13 +1233,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1244,6 +1284,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1555,7 +1601,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1572,7 +1618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1584,6 +1630,9 @@
       </c>
       <c r="E2" s="3" t="s">
         <v>62</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1637,7 +1686,7 @@
         <v>26</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>106</v>
+        <v>140</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>28</v>
@@ -1652,7 +1701,7 @@
         <v>23</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>105</v>
+        <v>141</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>28</v>
@@ -1667,7 +1716,7 @@
         <v>58</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>104</v>
+        <v>142</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>28</v>
@@ -1682,7 +1731,7 @@
         <v>59</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>28</v>
@@ -1697,7 +1746,7 @@
         <v>51</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>103</v>
+        <v>57</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>28</v>
@@ -1712,7 +1761,7 @@
         <v>24</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>102</v>
+        <v>143</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>28</v>
@@ -1727,7 +1776,7 @@
         <v>25</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>28</v>
@@ -1742,7 +1791,7 @@
         <v>27</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>100</v>
+        <v>145</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>28</v>
@@ -1757,7 +1806,7 @@
         <v>60</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>99</v>
+        <v>146</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>28</v>
@@ -1973,7 +2022,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2031,7 +2080,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>99</v>
+        <v>146</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -2071,7 +2120,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table Post_receive (</v>
+        <v>create table post_receive (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -2079,10 +2128,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>97</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>43</v>
@@ -2123,7 +2172,7 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -2135,10 +2184,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>43</v>
@@ -2161,13 +2210,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C13" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="D13" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -2176,7 +2225,7 @@
         <v>42</v>
       </c>
       <c r="I13" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="J13" s="3"/>
     </row>
@@ -2184,24 +2233,11 @@
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C14" t="s">
-        <v>140</v>
-      </c>
-      <c r="D14" t="s">
-        <v>141</v>
-      </c>
+      <c r="B14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I14" t="s">
-        <v>130</v>
-      </c>
+      <c r="H14" s="3"/>
       <c r="J14" s="3"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -2489,7 +2525,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2554,7 +2590,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>106</v>
+        <v>140</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -2594,7 +2630,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table User (</v>
+        <v>create table user (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -2731,7 +2767,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="L14" t="s">
         <v>47</v>
@@ -2771,10 +2807,10 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>40</v>
@@ -2787,7 +2823,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="L16" t="s">
         <v>47</v>
@@ -2798,10 +2834,10 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>43</v>
@@ -2816,7 +2852,7 @@
         <v>1</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -2824,13 +2860,13 @@
         <v>9</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C18" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="D18" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -2838,10 +2874,9 @@
       <c r="H18" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I18" t="s">
-        <v>130</v>
-      </c>
-      <c r="J18" s="3"/>
+      <c r="J18" s="3" t="s">
+        <v>139</v>
+      </c>
       <c r="L18" t="str">
         <f t="shared" ref="L18:L29" si="0">C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
         <v>created_at TIMESTAMP ,</v>
@@ -2852,13 +2887,13 @@
         <v>10</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C19" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D19" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -2867,7 +2902,7 @@
         <v>42</v>
       </c>
       <c r="I19" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="J19" s="3"/>
       <c r="L19" t="str">
@@ -3070,8 +3105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E335F36B-F1F9-49F0-826B-DDFCA2E3E38C}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3132,7 +3167,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>105</v>
+        <v>141</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -3172,7 +3207,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table Contents (</v>
+        <v>create table contents (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -3226,10 +3261,10 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
         <v>title VARCHAR (50),</v>
       </c>
     </row>
@@ -3237,27 +3272,26 @@
       <c r="A12" s="3">
         <v>3</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D12" s="3" t="s">
+      <c r="B12" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="D12" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="3">
-        <v>10</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+      <c r="E12">
+        <v>50</v>
+      </c>
       <c r="H12" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
+      <c r="J12" s="3" t="s">
+        <v>149</v>
+      </c>
       <c r="L12" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
         <v>creator VARCHAR (50),</v>
       </c>
     </row>
@@ -3266,16 +3300,16 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E13" s="3">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -3290,16 +3324,16 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>67</v>
+        <v>122</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>69</v>
+        <v>119</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E14" s="3">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -3307,11 +3341,9 @@
         <v>42</v>
       </c>
       <c r="I14" s="3"/>
-      <c r="J14" s="3" t="s">
-        <v>108</v>
-      </c>
+      <c r="J14" s="3"/>
       <c r="L14" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
         <v>#REF!</v>
       </c>
     </row>
@@ -3320,26 +3352,28 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D15" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E15" s="3">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
+      <c r="H15" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="L15" t="e">
-        <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
         <v>#REF!</v>
       </c>
     </row>
@@ -3348,26 +3382,26 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C16" t="s">
-        <v>139</v>
-      </c>
-      <c r="D16" t="s">
-        <v>141</v>
-      </c>
-      <c r="E16" s="3"/>
+        <v>55</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="3">
+        <v>100</v>
+      </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-      <c r="H16" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I16" t="s">
-        <v>130</v>
-      </c>
-      <c r="J16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="L16" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
         <v>#REF!</v>
       </c>
     </row>
@@ -3376,13 +3410,13 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="C17" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="D17" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -3390,31 +3424,40 @@
       <c r="H17" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I17" t="s">
-        <v>130</v>
-      </c>
-      <c r="J17" s="3"/>
-      <c r="L17" t="str">
-        <f t="shared" ref="L17:L29" si="0">C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">updated_at TIMESTAMP </v>
+      <c r="J17" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="L17" t="e">
+        <f>C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>9</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D18" t="s">
+        <v>131</v>
+      </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
+      <c r="H18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I18" t="s">
+        <v>121</v>
+      </c>
       <c r="J18" s="3"/>
-      <c r="L18" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+      <c r="L18" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -3431,7 +3474,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="L19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="L17:L29" si="0">C19&amp;" "&amp;D19&amp;" "&amp;IF(E19&lt;&gt;"","("&amp;E19&amp;")","")&amp;IF(C20&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3631,7 +3674,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:J15"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3692,7 +3735,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>104</v>
+        <v>142</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -3732,7 +3775,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table My_contents (</v>
+        <v>create table my_contents (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -3810,7 +3853,7 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="L12" t="e">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -3852,13 +3895,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C14" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="D14" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -3866,37 +3909,21 @@
       <c r="H14" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I14" t="s">
-        <v>130</v>
-      </c>
       <c r="J14" s="3"/>
       <c r="L14" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>status INTEGER ,</v>
+        <v xml:space="preserve">status INTEGER </v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C15" t="s">
-        <v>140</v>
-      </c>
-      <c r="D15" t="s">
-        <v>141</v>
-      </c>
+      <c r="B15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I15" t="s">
-        <v>130</v>
-      </c>
+      <c r="H15" s="3"/>
       <c r="J15" s="3"/>
       <c r="L15" t="e">
         <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -4170,8 +4197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BB964AA-EDE5-45E5-A69E-9550211D7D8F}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -4232,7 +4259,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -4272,7 +4299,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table Review (</v>
+        <v>create table review (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -4280,10 +4307,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>43</v>
@@ -4324,66 +4351,68 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>user_id INTEGER ,</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+      <c r="L11" t="e">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="16.8" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3" t="s">
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="I12" s="3"/>
+      <c r="I12" s="7"/>
       <c r="J12" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>my_contents_id INTEGER ,</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="16.8" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+      <c r="L12" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8" t="s">
+      <c r="B13" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="3">
+        <v>50</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I13" s="7"/>
+      <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
         <v>contents_id INTEGER ,</v>
       </c>
     </row>
@@ -4391,29 +4420,27 @@
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D14" s="3" t="s">
+      <c r="B14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="3">
-        <v>50</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3" t="s">
-        <v>117</v>
+      <c r="E14" s="6">
+        <v>500</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="9" t="s">
+        <v>110</v>
       </c>
       <c r="L14" t="str">
-        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
         <v>review VARCHAR (500),</v>
       </c>
     </row>
@@ -4422,26 +4449,28 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="6">
-        <v>500</v>
-      </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="9" t="s">
-        <v>119</v>
+        <v>51</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>111</v>
       </c>
       <c r="L15" t="e">
-        <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
         <v>#REF!</v>
       </c>
     </row>
@@ -4450,13 +4479,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>51</v>
+        <v>132</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>57</v>
+        <v>129</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>43</v>
+        <v>131</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -4464,14 +4493,12 @@
       <c r="H16" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I16" s="3">
-        <v>0</v>
-      </c>
+      <c r="I16" s="3"/>
       <c r="J16" s="3" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="L16" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
         <v>#REF!</v>
       </c>
     </row>
@@ -4480,13 +4507,13 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -4495,11 +4522,11 @@
         <v>42</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="J17" s="3"/>
       <c r="L17" t="e">
-        <f>C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
         <v>#REF!</v>
       </c>
     </row>
@@ -4507,25 +4534,6 @@
       <c r="A18" s="3">
         <v>9</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="J18" s="3"/>
       <c r="L18" t="e">
         <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
         <v>#REF!</v>
@@ -4545,7 +4553,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="L19" t="str">
-        <f t="shared" ref="L17:L29" si="0">C19&amp;" "&amp;D19&amp;" "&amp;IF(E19&lt;&gt;"","("&amp;E19&amp;")","")&amp;IF(C20&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L19:L29" si="0">C19&amp;" "&amp;D19&amp;" "&amp;IF(E19&lt;&gt;"","("&amp;E19&amp;")","")&amp;IF(C20&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4744,8 +4752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE81DF62-9962-4662-9621-11A937BFA3D5}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -4772,7 +4780,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -4794,7 +4802,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>146</v>
+        <v>51</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -4806,7 +4814,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>149</v>
+        <v>57</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -4846,7 +4854,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table Good_manage (</v>
+        <v>create table good (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -4854,10 +4862,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>43</v>
@@ -4872,7 +4880,7 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -4900,7 +4908,7 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="L11" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -4915,7 +4923,7 @@
         <v>51</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>43</v>
@@ -4930,11 +4938,11 @@
         <v>0</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="L12" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>created_at TIMESTAMP ,</v>
+        <v xml:space="preserve">created_at TIMESTAMP </v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -4942,13 +4950,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -4957,7 +4965,7 @@
         <v>42</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="J13" s="3"/>
       <c r="L13" t="e">
@@ -4969,24 +4977,14 @@
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>141</v>
-      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>130</v>
-      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="L14" t="e">
         <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
@@ -5279,7 +5277,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5343,7 +5341,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>102</v>
+        <v>143</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -5383,7 +5381,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table Chat (</v>
+        <v>create table chat (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -5391,10 +5389,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>43</v>
@@ -5419,10 +5417,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>43</v>
@@ -5445,10 +5443,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>43</v>
@@ -5471,10 +5469,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>39</v>
@@ -5487,7 +5485,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="L13" t="str">
         <f t="shared" si="0"/>
@@ -5515,7 +5513,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="L14" t="e">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -5527,10 +5525,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>43</v>
@@ -5545,7 +5543,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="L15" t="e">
         <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
@@ -5557,13 +5555,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -5571,10 +5569,10 @@
       <c r="H16" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I16" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="J16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="L16" t="str">
         <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
         <v>check INTEGER ,</v>
@@ -5585,13 +5583,13 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -5600,7 +5598,7 @@
         <v>42</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="J17" s="3"/>
       <c r="L17" t="str">
@@ -5840,7 +5838,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5899,7 +5897,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -5939,7 +5937,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table Favorite_user (</v>
+        <v>create table favorite_user (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -5965,7 +5963,7 @@
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="L10" t="e">
         <f>C10&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -5977,10 +5975,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>43</v>
@@ -5993,7 +5991,7 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="L11" t="e">
         <f>#REF!&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -6005,13 +6003,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C12" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="D12" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -6019,10 +6017,9 @@
       <c r="H12" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I12" t="s">
-        <v>130</v>
-      </c>
-      <c r="J12" s="3"/>
+      <c r="J12" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="L12" t="e">
         <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
         <v>#REF!</v>
@@ -6033,13 +6030,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C13" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D13" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -6048,7 +6045,7 @@
         <v>42</v>
       </c>
       <c r="I13" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="J13" s="3"/>
       <c r="L13" t="str">
@@ -6360,7 +6357,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:J16"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -6418,7 +6415,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>100</v>
+        <v>145</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -6458,7 +6455,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table Post (</v>
+        <v>create table post (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -6466,10 +6463,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>43</v>
@@ -6509,7 +6506,7 @@
         <v>42</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -6524,7 +6521,7 @@
         <v>48</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>40</v>
@@ -6539,7 +6536,7 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="L12" t="e">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -6551,10 +6548,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>40</v>
@@ -6569,7 +6566,7 @@
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="L13" t="e">
         <f>#REF!&amp;" "&amp;D14&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
@@ -6581,10 +6578,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>43</v>
@@ -6599,7 +6596,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="L14" t="e">
         <f>C14&amp;" "&amp;#REF!&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
@@ -6611,13 +6608,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C15" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="D15" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -6625,10 +6622,9 @@
       <c r="H15" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I15" t="s">
-        <v>130</v>
-      </c>
-      <c r="J15" s="3"/>
+      <c r="J15" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="L15" t="str">
         <f t="shared" si="0"/>
         <v>created_at TIMESTAMP ,</v>
@@ -6639,13 +6635,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C16" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D16" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -6654,7 +6650,7 @@
         <v>42</v>
       </c>
       <c r="I16" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="J16" s="3"/>
       <c r="L16" t="str">

--- a/doc/2_外部設計書/02_DB定義書_WAC.xlsx
+++ b/doc/2_外部設計書/02_DB定義書_WAC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A2\doc\2_外部設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E0AEFD-3B06-406C-82B7-3D979E7282B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B4A185-8E2C-4ACF-97DA-69B52E097666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="150">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -1011,9 +1011,6 @@
   </si>
   <si>
     <t>DAOで今の時間をとってくる</t>
-  </si>
-  <si>
-    <t>DAOで今の時間をとってくる</t>
     <rPh sb="4" eb="5">
       <t>イマ</t>
     </rPh>
@@ -1048,38 +1045,6 @@
   </si>
   <si>
     <t>post_receive</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>※更新する機能がないテーブルについては更新日時カラムを削除
-登録日時は、変えてはいけないため、DAOで日時を取得する。</t>
-    <rPh sb="1" eb="3">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ニチジ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="30" eb="34">
-      <t>トウロクニチジ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>ニチジ</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>シュトク</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1098,6 +1063,56 @@
   </si>
   <si>
     <t>ruby</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※すべてのテーブルに登録日時と更新日時のカラムを設定している。
+登録日時は、更新時に変えてはいけないため、DAOで日時を取得するようにする。更新日時は、デフォルトで更新日時を入れるように設定している。</t>
+    <rPh sb="10" eb="12">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="32" eb="36">
+      <t>トウロクニチジ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="70" eb="74">
+      <t>コウシンニチジ</t>
+    </rPh>
+    <rPh sb="82" eb="86">
+      <t>コウシンニチジ</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t>セッテイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1151,7 +1166,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1212,28 +1227,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -1248,7 +1241,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1276,19 +1269,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1600,8 +1587,8 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1618,7 +1605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1631,8 +1618,8 @@
       <c r="E2" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="12" t="s">
-        <v>147</v>
+      <c r="F2" s="10" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1686,7 +1673,7 @@
         <v>26</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>28</v>
@@ -1701,7 +1688,7 @@
         <v>23</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>28</v>
@@ -1716,7 +1703,7 @@
         <v>58</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>28</v>
@@ -1761,7 +1748,7 @@
         <v>24</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>28</v>
@@ -1776,7 +1763,7 @@
         <v>25</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>28</v>
@@ -1791,7 +1778,7 @@
         <v>27</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>28</v>
@@ -1806,7 +1793,7 @@
         <v>60</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>28</v>
@@ -2022,7 +2009,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B10" sqref="B10:J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2080,7 +2067,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -2212,10 +2199,10 @@
       <c r="B13" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="3" t="s">
         <v>131</v>
       </c>
       <c r="E13" s="3"/>
@@ -2224,26 +2211,40 @@
       <c r="H13" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I13" t="s">
-        <v>121</v>
-      </c>
-      <c r="J13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>131</v>
+      </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="H14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="J14" s="3"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
+      <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -2525,7 +2526,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2590,7 +2591,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -2756,7 +2757,7 @@
       <c r="C14" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E14" s="3">
@@ -2780,7 +2781,7 @@
       <c r="B15" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D15" s="3" t="s">
@@ -2809,7 +2810,7 @@
       <c r="B16" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="3" t="s">
         <v>124</v>
       </c>
       <c r="D16" s="3" t="s">
@@ -2836,7 +2837,7 @@
       <c r="B17" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>125</v>
       </c>
       <c r="D17" s="3" t="s">
@@ -2862,10 +2863,10 @@
       <c r="B18" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="3" t="s">
         <v>131</v>
       </c>
       <c r="E18" s="3"/>
@@ -2874,8 +2875,9 @@
       <c r="H18" s="3" t="s">
         <v>42</v>
       </c>
+      <c r="I18" s="3"/>
       <c r="J18" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L18" t="str">
         <f t="shared" ref="L18:L29" si="0">C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
@@ -2889,10 +2891,10 @@
       <c r="B19" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="3" t="s">
         <v>131</v>
       </c>
       <c r="E19" s="3"/>
@@ -2901,7 +2903,7 @@
       <c r="H19" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" s="3" t="s">
         <v>121</v>
       </c>
       <c r="J19" s="3"/>
@@ -3105,8 +3107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E335F36B-F1F9-49F0-826B-DDFCA2E3E38C}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3167,7 +3169,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -3261,7 +3263,7 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
@@ -3272,23 +3274,26 @@
       <c r="A12" s="3">
         <v>3</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C12" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="3">
         <v>50</v>
       </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
         <v>42</v>
       </c>
+      <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L12" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
@@ -3387,7 +3392,7 @@
       <c r="C16" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E16" s="3">
@@ -3412,10 +3417,10 @@
       <c r="B17" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="3" t="s">
         <v>131</v>
       </c>
       <c r="E17" s="3"/>
@@ -3424,6 +3429,7 @@
       <c r="H17" s="3" t="s">
         <v>42</v>
       </c>
+      <c r="I17" s="3"/>
       <c r="J17" s="3" t="s">
         <v>138</v>
       </c>
@@ -3439,10 +3445,10 @@
       <c r="B18" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="3" t="s">
         <v>131</v>
       </c>
       <c r="E18" s="3"/>
@@ -3451,7 +3457,7 @@
       <c r="H18" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="3" t="s">
         <v>121</v>
       </c>
       <c r="J18" s="3"/>
@@ -3474,7 +3480,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="L19" t="str">
-        <f t="shared" ref="L17:L29" si="0">C19&amp;" "&amp;D19&amp;" "&amp;IF(E19&lt;&gt;"","("&amp;E19&amp;")","")&amp;IF(C20&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L19:L29" si="0">C19&amp;" "&amp;D19&amp;" "&amp;IF(E19&lt;&gt;"","("&amp;E19&amp;")","")&amp;IF(C20&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3674,7 +3680,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3735,7 +3741,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -3897,10 +3903,10 @@
       <c r="B14" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="3" t="s">
         <v>131</v>
       </c>
       <c r="E14" s="3"/>
@@ -3909,21 +3915,37 @@
       <c r="H14" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="J14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="L14" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">status INTEGER </v>
+        <v>status INTEGER ,</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
-      <c r="B15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>131</v>
+      </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
+      <c r="H15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="J15" s="3"/>
       <c r="L15" t="e">
         <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -4198,7 +4220,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B14" sqref="B14:J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -4423,20 +4445,20 @@
       <c r="B14" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="3">
         <v>500</v>
       </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="9" t="s">
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3" t="s">
         <v>110</v>
       </c>
       <c r="L14" t="str">
@@ -4534,6 +4556,15 @@
       <c r="A18" s="3">
         <v>9</v>
       </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
       <c r="L18" t="e">
         <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
         <v>#REF!</v>
@@ -4753,7 +4784,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -4937,12 +4968,12 @@
       <c r="I12" s="3">
         <v>0</v>
       </c>
-      <c r="J12" s="11" t="s">
+      <c r="J12" s="9" t="s">
         <v>136</v>
       </c>
       <c r="L12" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">created_at TIMESTAMP </v>
+        <v>created_at TIMESTAMP ,</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -4964,10 +4995,10 @@
       <c r="H13" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I13" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="J13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="L13" t="e">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
         <v>#REF!</v>
@@ -4977,14 +5008,24 @@
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>131</v>
+      </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
+      <c r="H14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="J14" s="3"/>
       <c r="L14" t="e">
         <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
@@ -5002,7 +5043,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="7"/>
+      <c r="I15" s="11"/>
       <c r="J15" s="3"/>
       <c r="L15" t="str">
         <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
@@ -5277,7 +5318,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5341,7 +5382,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -5838,7 +5879,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B11" sqref="B11:J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5897,7 +5938,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -6005,10 +6046,10 @@
       <c r="B12" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="3" t="s">
         <v>131</v>
       </c>
       <c r="E12" s="3"/>
@@ -6017,6 +6058,7 @@
       <c r="H12" s="3" t="s">
         <v>42</v>
       </c>
+      <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
         <v>138</v>
       </c>
@@ -6032,10 +6074,10 @@
       <c r="B13" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="3" t="s">
         <v>131</v>
       </c>
       <c r="E13" s="3"/>
@@ -6044,7 +6086,7 @@
       <c r="H13" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="3" t="s">
         <v>121</v>
       </c>
       <c r="J13" s="3"/>
@@ -6357,7 +6399,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B14" sqref="B14:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -6415,7 +6457,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -6610,10 +6652,10 @@
       <c r="B15" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="3" t="s">
         <v>131</v>
       </c>
       <c r="E15" s="3"/>
@@ -6622,6 +6664,7 @@
       <c r="H15" s="3" t="s">
         <v>42</v>
       </c>
+      <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
         <v>138</v>
       </c>
@@ -6637,10 +6680,10 @@
       <c r="B16" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="3" t="s">
         <v>131</v>
       </c>
       <c r="E16" s="3"/>
@@ -6649,7 +6692,7 @@
       <c r="H16" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" s="3" t="s">
         <v>121</v>
       </c>
       <c r="J16" s="3"/>

--- a/doc/2_外部設計書/02_DB定義書_WAC.xlsx
+++ b/doc/2_外部設計書/02_DB定義書_WAC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A2\doc\2_外部設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B4A185-8E2C-4ACF-97DA-69B52E097666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{143FA964-3296-4E8E-BC2B-9C0171CDAB66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -1587,7 +1587,7 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -2009,7 +2009,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:J16"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2526,7 +2526,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3100,6 +3100,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4219,8 +4220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BB964AA-EDE5-45E5-A69E-9550211D7D8F}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:J20"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -4776,6 +4777,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4784,7 +4786,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -6398,7 +6400,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97415D3E-2CCA-4207-BA3B-ADD46DE8CC7F}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B14" sqref="B14:J17"/>
     </sheetView>
   </sheetViews>

--- a/doc/2_外部設計書/02_DB定義書_WAC.xlsx
+++ b/doc/2_外部設計書/02_DB定義書_WAC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A2\doc\2_外部設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{143FA964-3296-4E8E-BC2B-9C0171CDAB66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E70CFF3F-D0D6-4823-B7FF-F6A0CFCA1E4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="151">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -278,9 +278,6 @@
     <t xml:space="preserve">user_name </t>
   </si>
   <si>
-    <t>private</t>
-  </si>
-  <si>
     <t>VARCHAR</t>
   </si>
   <si>
@@ -571,10 +568,6 @@
   </si>
   <si>
     <t>user_id_favorite</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Good</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1113,6 +1106,18 @@
     <rPh sb="93" eb="95">
       <t>セッテイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>created_at</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>updated_at</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>open_close</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1616,10 +1621,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1673,7 +1678,7 @@
         <v>26</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>28</v>
@@ -1688,7 +1693,7 @@
         <v>23</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>28</v>
@@ -1700,10 +1705,10 @@
         <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>28</v>
@@ -1715,10 +1720,10 @@
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>28</v>
@@ -1730,10 +1735,10 @@
         <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>28</v>
@@ -1748,7 +1753,7 @@
         <v>24</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>28</v>
@@ -1763,7 +1768,7 @@
         <v>25</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>28</v>
@@ -1778,7 +1783,7 @@
         <v>27</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>28</v>
@@ -1790,10 +1795,10 @@
         <v>9</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>28</v>
@@ -2033,7 +2038,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -2055,7 +2060,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -2067,7 +2072,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -2115,20 +2120,20 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>96</v>
-      </c>
       <c r="D10" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -2146,20 +2151,20 @@
         <v>32</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -2171,19 +2176,19 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>89</v>
-      </c>
       <c r="D12" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -2197,23 +2202,23 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>129</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>131</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -2221,22 +2226,22 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J14" s="3"/>
     </row>
@@ -2525,8 +2530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2591,7 +2596,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -2639,20 +2644,20 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -2667,24 +2672,24 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E11" s="3">
         <v>100</v>
       </c>
       <c r="F11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L11" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -2702,7 +2707,7 @@
         <v>36</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E12" s="3">
         <v>20</v>
@@ -2710,7 +2715,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -2730,7 +2735,7 @@
         <v>37</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E13" s="3">
         <v>20</v>
@@ -2738,7 +2743,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -2752,13 +2757,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E14" s="3">
         <v>100</v>
@@ -2768,10 +2773,10 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -2782,25 +2787,25 @@
         <v>34</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>38</v>
+        <v>150</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I15" s="3">
         <v>1</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -2808,13 +2813,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E16" s="3">
         <v>200</v>
@@ -2824,10 +2829,10 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="L16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -2835,25 +2840,25 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I17" s="3">
         <v>1</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -2861,23 +2866,23 @@
         <v>9</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>129</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>131</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L18" t="str">
         <f t="shared" ref="L18:L29" si="0">C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
@@ -2889,22 +2894,22 @@
         <v>10</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J19" s="3"/>
       <c r="L19" t="str">
@@ -3170,7 +3175,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -3218,20 +3223,20 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -3246,13 +3251,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="D11" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E11" s="3">
         <v>50</v>
@@ -3260,11 +3265,11 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
@@ -3276,13 +3281,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>148</v>
-      </c>
       <c r="D12" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E12" s="3">
         <v>50</v>
@@ -3290,11 +3295,11 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L12" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
@@ -3306,13 +3311,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E13" s="3">
         <v>10</v>
@@ -3320,7 +3325,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -3330,13 +3335,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E14" s="3">
         <v>50</v>
@@ -3344,7 +3349,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -3358,13 +3363,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E15" s="3">
         <v>4</v>
@@ -3372,11 +3377,11 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L15" t="e">
         <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -3388,13 +3393,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E16" s="3">
         <v>100</v>
@@ -3404,7 +3409,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L16" t="e">
         <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
@@ -3416,23 +3421,23 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>129</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>131</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L17" t="e">
         <f>C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -3444,22 +3449,22 @@
         <v>9</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J18" s="3"/>
       <c r="L18" t="e">
@@ -3730,7 +3735,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -3742,7 +3747,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -3790,20 +3795,20 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -3818,19 +3823,19 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -3847,20 +3852,20 @@
         <v>32</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L12" t="e">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -3872,25 +3877,25 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>75</v>
-      </c>
       <c r="D13" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I13" s="3">
         <v>0</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L13" t="e">
         <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -3902,23 +3907,23 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>129</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>131</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L14" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
@@ -3930,22 +3935,22 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J15" s="3"/>
       <c r="L15" t="e">
@@ -4270,7 +4275,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -4282,7 +4287,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -4330,20 +4335,20 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>78</v>
-      </c>
       <c r="D10" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -4361,20 +4366,20 @@
         <v>32</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L11" t="e">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -4386,23 +4391,23 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I12" s="7"/>
       <c r="J12" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L12" t="e">
         <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -4414,13 +4419,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E13" s="3">
         <v>50</v>
@@ -4428,11 +4433,11 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L13" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
@@ -4444,13 +4449,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E14" s="3">
         <v>500</v>
@@ -4460,7 +4465,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
@@ -4472,25 +4477,25 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I15" s="3">
         <v>0</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L15" t="e">
         <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -4502,23 +4507,23 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>129</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>131</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L16" t="e">
         <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
@@ -4530,22 +4535,22 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J17" s="3"/>
       <c r="L17" t="e">
@@ -4786,7 +4791,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -4813,7 +4818,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -4835,7 +4840,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -4847,7 +4852,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -4895,25 +4900,25 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>78</v>
-      </c>
       <c r="D10" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -4928,24 +4933,24 @@
         <v>32</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L11" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>Good INTEGER ,</v>
+        <v>good INTEGER ,</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="52.8" x14ac:dyDescent="0.2">
@@ -4953,25 +4958,25 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I12" s="3">
         <v>0</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L12" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
@@ -4983,23 +4988,23 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>129</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>131</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L13" t="e">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -5011,22 +5016,22 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J14" s="3"/>
       <c r="L14" t="e">
@@ -5350,7 +5355,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -5384,7 +5389,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -5432,20 +5437,20 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -5460,19 +5465,19 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -5486,19 +5491,19 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -5512,13 +5517,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E13" s="3">
         <v>500</v>
@@ -5528,7 +5533,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L13" t="str">
         <f t="shared" si="0"/>
@@ -5540,13 +5545,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E14" s="3">
         <v>100</v>
@@ -5556,7 +5561,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L14" t="e">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -5568,25 +5573,25 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I15" s="3">
         <v>0</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L15" t="e">
         <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
@@ -5598,23 +5603,23 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>129</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>131</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L16" t="str">
         <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
@@ -5626,22 +5631,22 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J17" s="3"/>
       <c r="L17" t="str">
@@ -5906,7 +5911,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -5940,7 +5945,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -5991,22 +5996,22 @@
         <v>32</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L10" t="e">
         <f>C10&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -6018,23 +6023,23 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L11" t="e">
         <f>#REF!&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -6046,23 +6051,23 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>129</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>131</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L12" t="e">
         <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -6074,22 +6079,22 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J13" s="3"/>
       <c r="L13" t="str">
@@ -6400,7 +6405,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97415D3E-2CCA-4207-BA3B-ADD46DE8CC7F}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14:J17"/>
     </sheetView>
   </sheetViews>
@@ -6425,7 +6430,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -6459,7 +6464,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -6507,20 +6512,20 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>89</v>
-      </c>
       <c r="D10" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -6538,19 +6543,19 @@
         <v>32</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -6562,13 +6567,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E12" s="3">
         <v>50</v>
@@ -6576,11 +6581,11 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L12" t="e">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -6592,13 +6597,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E13" s="3">
         <v>200</v>
@@ -6606,11 +6611,11 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L13" t="e">
         <f>#REF!&amp;" "&amp;D14&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
@@ -6622,25 +6627,25 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L14" t="e">
         <f>C14&amp;" "&amp;#REF!&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
@@ -6652,23 +6657,23 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>129</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>131</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L15" t="str">
         <f t="shared" si="0"/>
@@ -6680,22 +6685,22 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J16" s="3"/>
       <c r="L16" t="str">

--- a/doc/2_外部設計書/02_DB定義書_WAC.xlsx
+++ b/doc/2_外部設計書/02_DB定義書_WAC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A2\doc\2_外部設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E70CFF3F-D0D6-4823-B7FF-F6A0CFCA1E4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{313BE5A7-3A90-4556-99F7-1569D8321A21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="153">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -1118,6 +1118,17 @@
   </si>
   <si>
     <t>open_close</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_id_writer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿者ユーザID</t>
+    <rPh sb="0" eb="3">
+      <t>トウコウシャ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2014,7 +2025,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2530,7 +2541,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+    <sheetView zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -4226,12 +4237,12 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
@@ -4363,10 +4374,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>32</v>
+        <v>152</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>42</v>
@@ -6405,8 +6416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97415D3E-2CCA-4207-BA3B-ADD46DE8CC7F}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:J17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -6540,10 +6551,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>32</v>
+        <v>152</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>42</v>
@@ -6559,7 +6570,7 @@
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>user_id INTEGER ,</v>
+        <v>user_id_writer INTEGER ,</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">

--- a/doc/2_外部設計書/02_DB定義書_WAC.xlsx
+++ b/doc/2_外部設計書/02_DB定義書_WAC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A2\doc\2_外部設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{313BE5A7-3A90-4556-99F7-1569D8321A21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB79F980-AC6B-467A-AFA0-91603CE03C1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="153">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -1182,7 +1182,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1225,17 +1225,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -1257,7 +1246,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1276,19 +1265,16 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -1634,7 +1620,7 @@
       <c r="E2" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>147</v>
       </c>
     </row>
@@ -2025,7 +2011,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2216,7 +2202,7 @@
         <v>130</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>129</v>
@@ -3125,7 +3111,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="B16" sqref="B16:J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -4236,8 +4222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BB964AA-EDE5-45E5-A69E-9550211D7D8F}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -4407,16 +4393,16 @@
       <c r="C12" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8" t="s">
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="I12" s="7"/>
+      <c r="I12" s="6"/>
       <c r="J12" s="3" t="s">
         <v>126</v>
       </c>
@@ -4429,10 +4415,10 @@
       <c r="A13" s="3">
         <v>4</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="3" t="s">
         <v>92</v>
       </c>
       <c r="D13" s="3" t="s">
@@ -4479,7 +4465,7 @@
         <v>108</v>
       </c>
       <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
         <v>review VARCHAR (500),</v>
       </c>
     </row>
@@ -4488,28 +4474,26 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="E15" s="3">
+        <v>100</v>
+      </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="L15" t="e">
-        <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
         <v>#REF!</v>
       </c>
     </row>
@@ -4518,13 +4502,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>127</v>
+        <v>56</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>129</v>
+        <v>42</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -4532,12 +4516,14 @@
       <c r="H16" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I16" s="3"/>
+      <c r="I16" s="3">
+        <v>0</v>
+      </c>
       <c r="J16" s="3" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="L16" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
         <v>#REF!</v>
       </c>
     </row>
@@ -4546,10 +4532,10 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>129</v>
@@ -4560,12 +4546,12 @@
       <c r="H17" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="J17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3" t="s">
+        <v>136</v>
+      </c>
       <c r="L17" t="e">
-        <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <f>C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
         <v>#REF!</v>
       </c>
     </row>
@@ -4573,17 +4559,27 @@
       <c r="A18" s="3">
         <v>9</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>129</v>
+      </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
+      <c r="H18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="J18" s="3"/>
       <c r="L18" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
         <v>#REF!</v>
       </c>
     </row>
@@ -4601,8 +4597,8 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="L19" t="str">
-        <f t="shared" ref="L19:L29" si="0">C19&amp;" "&amp;D19&amp;" "&amp;IF(E19&lt;&gt;"","("&amp;E19&amp;")","")&amp;IF(C20&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C20&lt;&gt;"",",","")</f>
+        <v>image VARCHAR (100)</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -4619,7 +4615,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="L20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="L19:L29" si="0">C20&amp;" "&amp;D20&amp;" "&amp;IF(E20&lt;&gt;"","("&amp;E20&amp;")","")&amp;IF(C21&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4986,7 +4982,7 @@
       <c r="I12" s="3">
         <v>0</v>
       </c>
-      <c r="J12" s="9" t="s">
+      <c r="J12" s="8" t="s">
         <v>134</v>
       </c>
       <c r="L12" t="str">
@@ -5061,7 +5057,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="11"/>
+      <c r="I15" s="10"/>
       <c r="J15" s="3"/>
       <c r="L15" t="str">
         <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
@@ -5897,7 +5893,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:J14"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -6416,8 +6412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97415D3E-2CCA-4207-BA3B-ADD46DE8CC7F}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -6671,7 +6667,7 @@
         <v>130</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>129</v>

--- a/doc/2_外部設計書/02_DB定義書_WAC.xlsx
+++ b/doc/2_外部設計書/02_DB定義書_WAC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A2\doc\2_外部設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB79F980-AC6B-467A-AFA0-91603CE03C1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C147FC65-E470-4FBD-A544-F5C12BF63BA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -2527,7 +2527,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -3111,7 +3111,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:J16"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3421,7 +3421,7 @@
         <v>130</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>129</v>
@@ -4222,7 +4222,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BB964AA-EDE5-45E5-A69E-9550211D7D8F}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
@@ -5893,7 +5893,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>

--- a/doc/2_外部設計書/02_DB定義書_WAC.xlsx
+++ b/doc/2_外部設計書/02_DB定義書_WAC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A2\doc\2_外部設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C147FC65-E470-4FBD-A544-F5C12BF63BA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{434AC10C-1C85-437B-8CCA-59A7E5D876E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="155">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -1129,6 +1129,14 @@
     <rPh sb="0" eb="3">
       <t>トウコウシャ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いいねID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>good_id</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1246,7 +1254,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1276,9 +1284,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2527,7 +2532,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+    <sheetView zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -4615,7 +4620,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="L20" t="str">
-        <f t="shared" ref="L19:L29" si="0">C20&amp;" "&amp;D20&amp;" "&amp;IF(E20&lt;&gt;"","("&amp;E20&amp;")","")&amp;IF(C21&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L20:L29" si="0">C20&amp;" "&amp;D20&amp;" "&amp;IF(E20&lt;&gt;"","("&amp;E20&amp;")","")&amp;IF(C21&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4798,7 +4803,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -4907,10 +4912,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>76</v>
+        <v>153</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>77</v>
+        <v>154</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>42</v>
@@ -4924,11 +4929,9 @@
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
-      <c r="J10" s="3" t="s">
-        <v>135</v>
-      </c>
+      <c r="J10" s="3"/>
       <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
         <v>review_id INTEGER ,</v>
       </c>
     </row>
@@ -4937,10 +4940,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>42</v>
@@ -4953,22 +4956,22 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L11" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
         <v>good INTEGER ,</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="52.8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>42</v>
@@ -4979,29 +4982,27 @@
       <c r="H12" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I12" s="3">
-        <v>0</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>134</v>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3" t="s">
+        <v>133</v>
       </c>
       <c r="L12" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
         <v>created_at TIMESTAMP ,</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>148</v>
+        <v>56</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>129</v>
+        <v>42</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -5009,12 +5010,14 @@
       <c r="H13" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3" t="s">
-        <v>136</v>
+      <c r="I13" s="3">
+        <v>0</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>134</v>
       </c>
       <c r="L13" t="e">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
         <v>#REF!</v>
       </c>
     </row>
@@ -5023,10 +5026,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>129</v>
@@ -5037,31 +5040,41 @@
       <c r="H14" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="J14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3" t="s">
+        <v>136</v>
+      </c>
       <c r="L14" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="16.8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>129</v>
+      </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="10"/>
+      <c r="H15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="J15" s="3"/>
-      <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+      <c r="L15" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -5078,7 +5091,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="L16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="L15:L29" si="0">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -5892,7 +5905,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED5B2574-DA89-4281-B334-BDD5759C0266}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>

--- a/doc/2_外部設計書/02_DB定義書_WAC.xlsx
+++ b/doc/2_外部設計書/02_DB定義書_WAC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A2\doc\2_外部設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{434AC10C-1C85-437B-8CCA-59A7E5D876E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{372FE647-D201-4348-A7E0-947A4228D3C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="155">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -973,29 +973,6 @@
   </si>
   <si>
     <t>いいねをつけたユーザのユーザID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザ自身がレビューIDのレビューにいいねが押されているか否かを意味する。
-いいねが押されなかったら0のまま、いいねが押されたら1にする。0か1のみ。</t>
-    <rPh sb="3" eb="5">
-      <t>ジシン</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>イナ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>イミ</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="59" eb="60">
-      <t>オ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1137,6 +1114,10 @@
   </si>
   <si>
     <t>good_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録日時</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1254,7 +1235,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1278,9 +1259,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1625,8 +1603,8 @@
       <c r="E2" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>147</v>
+      <c r="F2" s="8" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1680,7 +1658,7 @@
         <v>26</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>28</v>
@@ -1695,7 +1673,7 @@
         <v>23</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>28</v>
@@ -1710,7 +1688,7 @@
         <v>57</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>28</v>
@@ -1755,7 +1733,7 @@
         <v>24</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>28</v>
@@ -1770,7 +1748,7 @@
         <v>25</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>28</v>
@@ -1785,7 +1763,7 @@
         <v>27</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>28</v>
@@ -1800,7 +1778,7 @@
         <v>59</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>28</v>
@@ -2074,7 +2052,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -2207,7 +2185,7 @@
         <v>130</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>129</v>
@@ -2220,7 +2198,7 @@
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -2598,7 +2576,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -2789,7 +2767,7 @@
         <v>34</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>40</v>
@@ -2884,7 +2862,7 @@
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L18" t="str">
         <f t="shared" ref="L18:L29" si="0">C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
@@ -3177,7 +3155,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -3271,7 +3249,7 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
@@ -3283,10 +3261,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>39</v>
@@ -3301,7 +3279,7 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L12" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
@@ -3426,7 +3404,7 @@
         <v>130</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>129</v>
@@ -3439,7 +3417,7 @@
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L17" t="e">
         <f>C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -3749,7 +3727,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -3925,7 +3903,7 @@
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L14" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
@@ -4365,10 +4343,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>42</v>
@@ -4553,7 +4531,7 @@
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L17" t="e">
         <f>C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -4802,8 +4780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE81DF62-9962-4662-9621-11A937BFA3D5}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -4912,10 +4890,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>153</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>154</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>42</v>
@@ -4930,9 +4908,9 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
-      <c r="L10" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>review_id INTEGER ,</v>
+      <c r="L10" t="e">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -4956,11 +4934,11 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="L11" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>good INTEGER ,</v>
+        <v>134</v>
+      </c>
+      <c r="L11" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -4987,22 +4965,22 @@
         <v>133</v>
       </c>
       <c r="L12" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
         <v>created_at TIMESTAMP ,</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="52.8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>50</v>
+        <v>154</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>56</v>
+        <v>147</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>42</v>
+        <v>129</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -5010,14 +4988,12 @@
       <c r="H13" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I13" s="3">
-        <v>0</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>134</v>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3" t="s">
+        <v>135</v>
       </c>
       <c r="L13" t="e">
-        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
         <v>#REF!</v>
       </c>
     </row>
@@ -5026,7 +5002,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>148</v>
@@ -5040,10 +5016,10 @@
       <c r="H14" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3" t="s">
-        <v>136</v>
-      </c>
+      <c r="I14" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="J14" s="3"/>
       <c r="L14" t="e">
         <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
         <v>#REF!</v>
@@ -5053,24 +5029,14 @@
       <c r="A15" s="3">
         <v>6</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>129</v>
-      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>119</v>
-      </c>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="L15" t="e">
         <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
@@ -5091,7 +5057,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="L16" t="str">
-        <f t="shared" ref="L15:L29" si="0">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L16:L29" si="0">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -5409,7 +5375,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -5639,7 +5605,7 @@
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L16" t="str">
         <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
@@ -5905,7 +5871,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED5B2574-DA89-4281-B334-BDD5759C0266}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -5965,7 +5931,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -6087,7 +6053,7 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L12" t="e">
         <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -6484,7 +6450,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -6560,10 +6526,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>42</v>
@@ -6680,7 +6646,7 @@
         <v>130</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>129</v>
@@ -6693,7 +6659,7 @@
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L15" t="str">
         <f t="shared" si="0"/>

--- a/doc/2_外部設計書/02_DB定義書_WAC.xlsx
+++ b/doc/2_外部設計書/02_DB定義書_WAC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A2\doc\2_外部設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{372FE647-D201-4348-A7E0-947A4228D3C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F49A236F-DCD2-4BCE-8553-282EFEE0C829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="154">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -741,16 +741,6 @@
     </rPh>
     <rPh sb="40" eb="42">
       <t>ナイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>いいねが押される度に+1されていく</t>
-    <rPh sb="4" eb="5">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>タビ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1604,7 +1594,7 @@
         <v>61</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1658,7 +1648,7 @@
         <v>26</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>28</v>
@@ -1673,7 +1663,7 @@
         <v>23</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>28</v>
@@ -1688,7 +1678,7 @@
         <v>57</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>28</v>
@@ -1733,7 +1723,7 @@
         <v>24</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>28</v>
@@ -1748,7 +1738,7 @@
         <v>25</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>28</v>
@@ -1763,7 +1753,7 @@
         <v>27</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>28</v>
@@ -1778,7 +1768,7 @@
         <v>59</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>28</v>
@@ -2052,7 +2042,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -2182,13 +2172,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -2198,7 +2188,7 @@
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -2206,13 +2196,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>129</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -2221,7 +2211,7 @@
         <v>41</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J14" s="3"/>
     </row>
@@ -2576,7 +2566,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -2767,7 +2757,7 @@
         <v>34</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>40</v>
@@ -2793,10 +2783,10 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>39</v>
@@ -2809,7 +2799,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L16" t="s">
         <v>46</v>
@@ -2820,10 +2810,10 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>42</v>
@@ -2838,7 +2828,7 @@
         <v>1</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -2846,13 +2836,13 @@
         <v>9</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -2862,7 +2852,7 @@
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L18" t="str">
         <f t="shared" ref="L18:L29" si="0">C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
@@ -2874,13 +2864,13 @@
         <v>10</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C19" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>129</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -2889,7 +2879,7 @@
         <v>41</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J19" s="3"/>
       <c r="L19" t="str">
@@ -3155,7 +3145,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -3249,7 +3239,7 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
@@ -3261,10 +3251,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>39</v>
@@ -3279,7 +3269,7 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L12" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
@@ -3315,10 +3305,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>39</v>
@@ -3401,13 +3391,13 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -3417,7 +3407,7 @@
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L17" t="e">
         <f>C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -3429,13 +3419,13 @@
         <v>9</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>129</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -3444,7 +3434,7 @@
         <v>41</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J18" s="3"/>
       <c r="L18" t="e">
@@ -3727,7 +3717,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -3887,13 +3877,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -3903,7 +3893,7 @@
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L14" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
@@ -3915,13 +3905,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>129</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -3930,7 +3920,7 @@
         <v>41</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J15" s="3"/>
       <c r="L15" t="e">
@@ -4205,8 +4195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BB964AA-EDE5-45E5-A69E-9550211D7D8F}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -4343,10 +4333,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>42</v>
@@ -4359,7 +4349,7 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L11" t="e">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -4387,7 +4377,7 @@
       </c>
       <c r="I12" s="6"/>
       <c r="J12" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L12" t="e">
         <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -4448,7 +4438,7 @@
         <v>108</v>
       </c>
       <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
         <v>review VARCHAR (500),</v>
       </c>
     </row>
@@ -4476,7 +4466,7 @@
         <v>97</v>
       </c>
       <c r="L15" t="e">
-        <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
         <v>#REF!</v>
       </c>
     </row>
@@ -4485,13 +4475,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>50</v>
+        <v>129</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>42</v>
+        <v>128</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -4499,14 +4489,12 @@
       <c r="H16" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I16" s="3">
-        <v>0</v>
-      </c>
+      <c r="I16" s="3"/>
       <c r="J16" s="3" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
       <c r="L16" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
         <v>#REF!</v>
       </c>
     </row>
@@ -4521,7 +4509,7 @@
         <v>127</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -4529,12 +4517,12 @@
       <c r="H17" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3" t="s">
-        <v>135</v>
-      </c>
+      <c r="I17" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="J17" s="3"/>
       <c r="L17" t="e">
-        <f>C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
         <v>#REF!</v>
       </c>
     </row>
@@ -4542,24 +4530,14 @@
       <c r="A18" s="3">
         <v>9</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>129</v>
-      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
-      <c r="H18" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>119</v>
-      </c>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="L18" t="e">
         <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
@@ -4780,7 +4758,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE81DF62-9962-4662-9621-11A937BFA3D5}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -4808,7 +4786,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -4890,10 +4868,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>152</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>153</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>42</v>
@@ -4934,7 +4912,7 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L11" t="e">
         <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -4962,7 +4940,7 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L12" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
@@ -4974,13 +4952,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -4990,7 +4968,7 @@
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L13" t="e">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -5002,13 +4980,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -5017,7 +4995,7 @@
         <v>41</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J14" s="3"/>
       <c r="L14" t="e">
@@ -5375,7 +5353,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -5519,7 +5497,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L13" t="str">
         <f t="shared" si="0"/>
@@ -5559,10 +5537,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>42</v>
@@ -5577,7 +5555,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L15" t="e">
         <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
@@ -5589,13 +5567,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -5605,7 +5583,7 @@
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L16" t="str">
         <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
@@ -5617,13 +5595,13 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>129</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -5632,7 +5610,7 @@
         <v>41</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J17" s="3"/>
       <c r="L17" t="str">
@@ -5931,7 +5909,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -6037,13 +6015,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -6053,7 +6031,7 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L12" t="e">
         <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -6065,13 +6043,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>129</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -6080,7 +6058,7 @@
         <v>41</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J13" s="3"/>
       <c r="L13" t="str">
@@ -6450,7 +6428,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -6526,10 +6504,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>42</v>
@@ -6601,7 +6579,7 @@
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L13" t="e">
         <f>#REF!&amp;" "&amp;D14&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
@@ -6631,7 +6609,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L14" t="e">
         <f>C14&amp;" "&amp;#REF!&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
@@ -6643,13 +6621,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -6659,7 +6637,7 @@
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L15" t="str">
         <f t="shared" si="0"/>
@@ -6671,13 +6649,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>129</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -6686,7 +6664,7 @@
         <v>41</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J16" s="3"/>
       <c r="L16" t="str">

--- a/doc/2_外部設計書/02_DB定義書_WAC.xlsx
+++ b/doc/2_外部設計書/02_DB定義書_WAC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A2\doc\2_外部設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{372FE647-D201-4348-A7E0-947A4228D3C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A8D39C-B1FD-4316-9F72-5159331CF0EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="153">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -301,14 +301,6 @@
   </si>
   <si>
     <t>メールはもっと長いものもあるが、今回は100文字までのメールアドレスに限定する。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>photo BLOB,</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>private INTEGER,</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1572,7 +1564,7 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -1601,10 +1593,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1658,7 +1650,7 @@
         <v>26</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>28</v>
@@ -1673,7 +1665,7 @@
         <v>23</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>28</v>
@@ -1685,10 +1677,10 @@
         <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>28</v>
@@ -1700,10 +1692,10 @@
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>28</v>
@@ -1715,10 +1707,10 @@
         <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>28</v>
@@ -1733,7 +1725,7 @@
         <v>24</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>28</v>
@@ -1748,7 +1740,7 @@
         <v>25</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>28</v>
@@ -1763,7 +1755,7 @@
         <v>27</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>28</v>
@@ -1775,10 +1767,10 @@
         <v>9</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>28</v>
@@ -1994,7 +1986,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2018,7 +2010,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -2040,7 +2032,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -2052,7 +2044,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -2100,10 +2092,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>42</v>
@@ -2119,7 +2111,7 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
-        <f t="shared" ref="L10:L29" si="0">C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
         <v>post_receive_id INTEGER ,</v>
       </c>
     </row>
@@ -2131,7 +2123,7 @@
         <v>32</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>42</v>
@@ -2144,10 +2136,10 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
         <v>user_id INTEGER ,</v>
       </c>
     </row>
@@ -2156,10 +2148,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>42</v>
@@ -2172,9 +2164,9 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
-      <c r="L12" t="e">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+      <c r="L12" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>post_id INTEGER ,</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -2182,13 +2174,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -2198,7 +2190,11 @@
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
+      </c>
+      <c r="L13" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>created_at TIMESTAMP ,</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -2206,13 +2202,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -2221,9 +2217,13 @@
         <v>41</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J14" s="3"/>
+      <c r="L14" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">updated_at TIMESTAMP </v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
@@ -2239,7 +2239,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="L15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2510,8 +2510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="D8" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2576,7 +2576,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -2624,7 +2624,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>35</v>
@@ -2634,7 +2634,7 @@
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>41</v>
@@ -2643,8 +2643,8 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>mail VARCHAR (100),</v>
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>user_id INTEGER ,</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -2655,7 +2655,7 @@
         <v>43</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>39</v>
@@ -2672,8 +2672,8 @@
         <v>44</v>
       </c>
       <c r="L11" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>pass VARCHAR (20),</v>
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>mail VARCHAR (100),</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -2700,8 +2700,8 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>user_name  VARCHAR (20),</v>
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>pass VARCHAR (20),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -2727,9 +2727,9 @@
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
-      <c r="L13" t="e">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+      <c r="L13" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>user_name  VARCHAR (20),</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -2737,10 +2737,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>39</v>
@@ -2753,10 +2753,11 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="L14" t="s">
-        <v>46</v>
+        <v>95</v>
+      </c>
+      <c r="L14" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v>icon VARCHAR (100),</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -2767,7 +2768,7 @@
         <v>34</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>40</v>
@@ -2782,10 +2783,11 @@
         <v>1</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="L15" t="s">
-        <v>45</v>
+        <v>63</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v>open_close INTEGER ,</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -2793,10 +2795,10 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>39</v>
@@ -2809,10 +2811,11 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="L16" t="s">
-        <v>46</v>
+        <v>114</v>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v>introduction VARCHAR (200),</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -2820,10 +2823,10 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>42</v>
@@ -2838,7 +2841,11 @@
         <v>1</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
+      </c>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v>flag INTEGER ,</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -2846,13 +2853,13 @@
         <v>9</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>129</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -2862,10 +2869,10 @@
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L18" t="str">
-        <f t="shared" ref="L18:L29" si="0">C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>created_at TIMESTAMP ,</v>
       </c>
     </row>
@@ -2874,13 +2881,13 @@
         <v>10</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -2889,7 +2896,7 @@
         <v>41</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J19" s="3"/>
       <c r="L19" t="str">
@@ -3093,8 +3100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E335F36B-F1F9-49F0-826B-DDFCA2E3E38C}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="A8" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3155,7 +3162,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -3203,10 +3210,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>40</v>
@@ -3231,10 +3238,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>39</v>
@@ -3249,10 +3256,10 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
         <v>title VARCHAR (50),</v>
       </c>
     </row>
@@ -3261,10 +3268,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>143</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>145</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>39</v>
@@ -3279,11 +3286,11 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L12" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>creator VARCHAR (50),</v>
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>ruby VARCHAR (50),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -3291,10 +3298,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>39</v>
@@ -3309,16 +3316,20 @@
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
+      <c r="L13" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>genre VARCHAR (10),</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>39</v>
@@ -3333,9 +3344,9 @@
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
-      <c r="L14" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+      <c r="L14" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v>creator VARCHAR (50),</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -3343,10 +3354,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>39</v>
@@ -3361,11 +3372,11 @@
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="L15" t="e">
-        <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+        <v>96</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v>year VARCHAR (4),</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -3373,10 +3384,10 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>39</v>
@@ -3389,11 +3400,11 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="L16" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+        <v>95</v>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v>image VARCHAR (100),</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -3401,13 +3412,13 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -3417,11 +3428,11 @@
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="L17" t="e">
-        <f>C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+        <v>133</v>
+      </c>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v>created_at TIMESTAMP ,</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -3429,13 +3440,13 @@
         <v>9</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -3444,12 +3455,12 @@
         <v>41</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J18" s="3"/>
-      <c r="L18" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">updated_at TIMESTAMP </v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -3466,7 +3477,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="L19" t="str">
-        <f t="shared" ref="L19:L29" si="0">C19&amp;" "&amp;D19&amp;" "&amp;IF(E19&lt;&gt;"","("&amp;E19&amp;")","")&amp;IF(C20&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3666,7 +3677,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3715,7 +3726,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -3727,7 +3738,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -3775,10 +3786,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>42</v>
@@ -3803,10 +3814,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>42</v>
@@ -3832,7 +3843,7 @@
         <v>32</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>42</v>
@@ -3845,11 +3856,11 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="L12" t="e">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+        <v>102</v>
+      </c>
+      <c r="L12" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>user_id INTEGER ,</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -3857,10 +3868,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>42</v>
@@ -3875,11 +3886,11 @@
         <v>0</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="L13" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+        <v>73</v>
+      </c>
+      <c r="L13" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>status INTEGER ,</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -3887,13 +3898,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>129</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -3903,11 +3914,11 @@
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L14" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>status INTEGER ,</v>
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v>created_at TIMESTAMP ,</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -3915,13 +3926,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -3930,12 +3941,12 @@
         <v>41</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J15" s="3"/>
-      <c r="L15" t="e">
-        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+      <c r="L15" t="str">
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">updated_at TIMESTAMP </v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -3951,9 +3962,9 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
-      <c r="L16" t="e">
-        <f>#REF!&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -3970,7 +3981,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="L17" t="str">
-        <f t="shared" ref="L17:L29" si="0">C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4205,8 +4216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BB964AA-EDE5-45E5-A69E-9550211D7D8F}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView topLeftCell="F11" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -4255,7 +4266,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -4267,7 +4278,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -4315,10 +4326,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>42</v>
@@ -4343,10 +4354,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>42</v>
@@ -4359,11 +4370,11 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="L11" t="e">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+        <v>123</v>
+      </c>
+      <c r="L11" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>user_id_writer INTEGER ,</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="16.8" x14ac:dyDescent="0.2">
@@ -4371,10 +4382,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>42</v>
@@ -4387,11 +4398,11 @@
       </c>
       <c r="I12" s="6"/>
       <c r="J12" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="L12" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+        <v>124</v>
+      </c>
+      <c r="L12" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>contents_id INTEGER ,</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -4399,10 +4410,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>39</v>
@@ -4417,11 +4428,11 @@
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L13" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>contents_id INTEGER ,</v>
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>title VARCHAR (50),</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -4429,10 +4440,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>39</v>
@@ -4445,10 +4456,10 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
         <v>review VARCHAR (500),</v>
       </c>
     </row>
@@ -4457,10 +4468,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>39</v>
@@ -4473,11 +4484,11 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="L15" t="e">
-        <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+        <v>95</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v>image VARCHAR (100),</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -4485,10 +4496,10 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>42</v>
@@ -4503,11 +4514,11 @@
         <v>0</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="L16" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+        <v>107</v>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v>good INTEGER ,</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -4515,13 +4526,13 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>129</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -4531,11 +4542,11 @@
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="L17" t="e">
-        <f>C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+        <v>133</v>
+      </c>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v>created_at TIMESTAMP ,</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -4543,13 +4554,13 @@
         <v>9</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -4558,12 +4569,12 @@
         <v>41</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J18" s="3"/>
-      <c r="L18" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">updated_at TIMESTAMP </v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -4580,8 +4591,8 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="L19" t="str">
-        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C20&lt;&gt;"",",","")</f>
-        <v>image VARCHAR (100)</v>
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -4598,7 +4609,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="L20" t="str">
-        <f t="shared" ref="L20:L29" si="0">C20&amp;" "&amp;D20&amp;" "&amp;IF(E20&lt;&gt;"","("&amp;E20&amp;")","")&amp;IF(C21&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4780,8 +4791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE81DF62-9962-4662-9621-11A937BFA3D5}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="D11" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -4808,7 +4819,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -4830,7 +4841,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -4842,7 +4853,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -4890,10 +4901,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>42</v>
@@ -4908,9 +4919,9 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
-      <c r="L10" t="e">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>good_id INTEGER ,</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -4918,10 +4929,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>42</v>
@@ -4934,11 +4945,11 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="L11" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+        <v>132</v>
+      </c>
+      <c r="L11" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>review_id INTEGER ,</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -4949,7 +4960,7 @@
         <v>32</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>42</v>
@@ -4962,11 +4973,11 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L12" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>created_at TIMESTAMP ,</v>
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>user_id INTEGER ,</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -4974,13 +4985,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -4990,11 +5001,11 @@
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="L13" t="e">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+        <v>133</v>
+      </c>
+      <c r="L13" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>created_at TIMESTAMP ,</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -5002,13 +5013,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -5017,12 +5028,12 @@
         <v>41</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J14" s="3"/>
-      <c r="L14" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+      <c r="L14" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">updated_at TIMESTAMP </v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -5038,9 +5049,9 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
-      <c r="L15" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+      <c r="L15" t="str">
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -5057,7 +5068,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="L16" t="str">
-        <f t="shared" ref="L16:L29" si="0">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -5308,10 +5319,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA9F41C7-F4D7-4E4E-A148-D2DA2898BE2B}">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView topLeftCell="A5" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5327,10 +5338,10 @@
     <col min="10" max="10" width="78.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19.2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="19.2" x14ac:dyDescent="0.2">
       <c r="A1" s="4"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>20</v>
       </c>
@@ -5341,10 +5352,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -5358,7 +5369,7 @@
         <v>45450</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
@@ -5370,19 +5381,19 @@
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -5417,16 +5428,20 @@
         <f>"create table "&amp;C5&amp;" ("</f>
         <v>create table chat (</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" t="str">
+        <f>"create table "&amp;D5&amp;" ("</f>
+        <v>create table 更新日 (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>42</v>
@@ -5442,19 +5457,23 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
-        <f t="shared" ref="L10:L29" si="0">C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
         <v>chat_id INTEGER ,</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" t="str">
+        <f>D10&amp;" "&amp;E10&amp;" "&amp;IF(F10&lt;&gt;"","("&amp;F10&amp;")","")&amp;IF(D11&lt;&gt;"",",","")</f>
+        <v>INTEGER  (〇),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>42</v>
@@ -5468,19 +5487,23 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="L11" t="str">
-        <f t="shared" si="0"/>
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
         <v>user_id_speaker INTEGER ,</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" t="str">
+        <f>D11&amp;" "&amp;E11&amp;" "&amp;IF(F11&lt;&gt;"","("&amp;F11&amp;")","")&amp;IF(D12&lt;&gt;"",",","")</f>
+        <v>INTEGER  ,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>42</v>
@@ -5494,19 +5517,23 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
-        <f t="shared" si="0"/>
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
         <v>user_id_listener INTEGER ,</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" t="str">
+        <f>D12&amp;" "&amp;E12&amp;" "&amp;IF(F12&lt;&gt;"","("&amp;F12&amp;")","")&amp;IF(D13&lt;&gt;"",",","")</f>
+        <v>INTEGER  ,</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>38</v>
@@ -5519,22 +5546,26 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L13" t="str">
-        <f t="shared" si="0"/>
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
         <v>talk VARCHAR (500),</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" t="str">
+        <f>D13&amp;" "&amp;E13&amp;" "&amp;IF(F13&lt;&gt;"","("&amp;F13&amp;")","")&amp;IF(D14&lt;&gt;"",",","")</f>
+        <v>VARCHAR 500 ,</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>38</v>
@@ -5547,22 +5578,26 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="L14" t="e">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+      <c r="L14" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v>image VARCHAR (100),</v>
+      </c>
+      <c r="M14" t="str">
+        <f>D14&amp;" "&amp;E14&amp;" "&amp;IF(F14&lt;&gt;"","("&amp;F14&amp;")","")&amp;IF(D15&lt;&gt;"",",","")</f>
+        <v>VARCHAR 100 ,</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>42</v>
@@ -5577,25 +5612,29 @@
         <v>0</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="L15" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" ref="L15:M29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v>check INTEGER ,</v>
+      </c>
+      <c r="M15" t="str">
+        <f t="shared" si="0"/>
+        <v>INTEGER  ,</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>129</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -5605,25 +5644,29 @@
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L16" t="str">
-        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v>check INTEGER ,</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>created_at TIMESTAMP ,</v>
+      </c>
+      <c r="M16" t="str">
+        <f t="shared" si="0"/>
+        <v>TIMESTAMP  ,</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -5632,15 +5675,19 @@
         <v>41</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J17" s="3"/>
       <c r="L17" t="str">
-        <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
-        <v>created_at TIMESTAMP ,</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">updated_at TIMESTAMP </v>
+      </c>
+      <c r="M17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">TIMESTAMP  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -5654,11 +5701,15 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="L18" t="str">
-        <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">updated_at TIMESTAMP </v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+      <c r="M18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -5675,8 +5726,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -5693,8 +5748,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -5711,8 +5770,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -5729,8 +5792,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -5747,8 +5814,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -5765,8 +5836,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -5783,8 +5858,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -5801,8 +5880,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -5819,8 +5902,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -5837,8 +5924,12 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -5855,9 +5946,16 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="L30" t="s">
+        <v>19</v>
+      </c>
+      <c r="M30" t="s">
         <v>19</v>
       </c>
     </row>
@@ -5871,8 +5969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED5B2574-DA89-4281-B334-BDD5759C0266}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9:L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5897,7 +5995,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -5931,7 +6029,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -5982,7 +6080,7 @@
         <v>32</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>42</v>
@@ -5997,11 +6095,11 @@
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="L10" t="e">
-        <f>C10&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+        <v>97</v>
+      </c>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>user_id INTEGER ,</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -6009,10 +6107,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>42</v>
@@ -6025,11 +6123,11 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="L11" t="e">
-        <f>#REF!&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+        <v>98</v>
+      </c>
+      <c r="L11" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>user_id_favorite INTEGER ,</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -6037,13 +6135,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>129</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -6053,11 +6151,11 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="L12" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+        <v>133</v>
+      </c>
+      <c r="L12" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>created_at TIMESTAMP ,</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -6065,13 +6163,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -6080,11 +6178,11 @@
         <v>41</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J13" s="3"/>
       <c r="L13" t="str">
-        <f t="shared" ref="L13:L29" si="0">C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
         <v xml:space="preserve">updated_at TIMESTAMP </v>
       </c>
     </row>
@@ -6102,7 +6200,7 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="L14" t="str">
-        <f t="shared" si="0"/>
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -6120,7 +6218,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="L15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -6391,8 +6489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97415D3E-2CCA-4207-BA3B-ADD46DE8CC7F}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="D11" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -6416,7 +6514,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -6450,7 +6548,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -6498,10 +6596,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>42</v>
@@ -6517,7 +6615,7 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
-        <f t="shared" ref="L10:L29" si="0">C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
         <v>post_id INTEGER ,</v>
       </c>
     </row>
@@ -6526,10 +6624,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>42</v>
@@ -6541,10 +6639,10 @@
         <v>41</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
         <v>user_id_writer INTEGER ,</v>
       </c>
     </row>
@@ -6553,10 +6651,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>39</v>
@@ -6571,11 +6669,11 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="L12" t="e">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+        <v>105</v>
+      </c>
+      <c r="L12" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>title VARCHAR (50),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -6583,10 +6681,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>39</v>
@@ -6601,11 +6699,11 @@
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="L13" t="e">
-        <f>#REF!&amp;" "&amp;D14&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+        <v>109</v>
+      </c>
+      <c r="L13" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>recommend VARCHAR (200),</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -6613,10 +6711,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>42</v>
@@ -6631,11 +6729,11 @@
         <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="L14" t="e">
-        <f>C14&amp;" "&amp;#REF!&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+        <v>110</v>
+      </c>
+      <c r="L14" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v>interest INTEGER ,</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -6643,13 +6741,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -6659,10 +6757,10 @@
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
         <v>created_at TIMESTAMP ,</v>
       </c>
     </row>
@@ -6671,13 +6769,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -6686,7 +6784,7 @@
         <v>41</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J16" s="3"/>
       <c r="L16" t="str">

--- a/doc/2_外部設計書/02_DB定義書_WAC.xlsx
+++ b/doc/2_外部設計書/02_DB定義書_WAC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A2\doc\2_外部設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F49A236F-DCD2-4BCE-8553-282EFEE0C829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D02F910-EC47-49A4-B738-5C5442EBC747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="157">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -1108,6 +1108,30 @@
   </si>
   <si>
     <t>登録日時</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自分の気になる！</t>
+    <rPh sb="0" eb="2">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>my_interest</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自分が気になる！をつけたかどうか。1＝つけた、0＝つけてない</t>
+    <rPh sb="0" eb="2">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>キ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1225,7 +1249,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1252,6 +1276,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1983,15 +2010,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5A85273-6B4F-4B86-8EF7-3F885FA0FA3E}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="5" width="19.33203125" customWidth="1"/>
     <col min="9" max="9" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="53.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="59.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.2" x14ac:dyDescent="0.2">
@@ -2137,7 +2164,7 @@
         <v>103</v>
       </c>
       <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
         <v>user_id INTEGER ,</v>
       </c>
     </row>
@@ -2163,7 +2190,7 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" t="e">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
         <v>#REF!</v>
       </c>
     </row>
@@ -2171,14 +2198,14 @@
       <c r="A13" s="3">
         <v>4</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>146</v>
+      <c r="B13" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>155</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>128</v>
+        <v>42</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -2186,9 +2213,11 @@
       <c r="H13" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I13" s="3"/>
+      <c r="I13" s="3">
+        <v>0</v>
+      </c>
       <c r="J13" s="3" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -2196,10 +2225,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>128</v>
@@ -2210,27 +2239,37 @@
       <c r="H14" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="J14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
+      <c r="H15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>118</v>
+      </c>
       <c r="J15" s="3"/>
-      <c r="L15" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+      <c r="L15" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -4195,7 +4234,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BB964AA-EDE5-45E5-A69E-9550211D7D8F}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
@@ -6370,7 +6409,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>

--- a/doc/2_外部設計書/02_DB定義書_WAC.xlsx
+++ b/doc/2_外部設計書/02_DB定義書_WAC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A2\doc\2_外部設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A8D39C-B1FD-4316-9F72-5159331CF0EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D02F910-EC47-49A4-B738-5C5442EBC747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="157">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -304,6 +304,14 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>photo BLOB,</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>private INTEGER,</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>タイトル</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -733,16 +741,6 @@
     </rPh>
     <rPh sb="40" eb="42">
       <t>ナイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>いいねが押される度に+1されていく</t>
-    <rPh sb="4" eb="5">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>タビ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1110,6 +1108,30 @@
   </si>
   <si>
     <t>登録日時</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自分の気になる！</t>
+    <rPh sb="0" eb="2">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>my_interest</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自分が気になる！をつけたかどうか。1＝つけた、0＝つけてない</t>
+    <rPh sb="0" eb="2">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>キ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1227,7 +1249,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1254,6 +1276,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1564,7 +1589,7 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -1593,10 +1618,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1650,7 +1675,7 @@
         <v>26</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>28</v>
@@ -1665,7 +1690,7 @@
         <v>23</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>28</v>
@@ -1677,10 +1702,10 @@
         <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>28</v>
@@ -1692,10 +1717,10 @@
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>28</v>
@@ -1707,10 +1732,10 @@
         <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>28</v>
@@ -1725,7 +1750,7 @@
         <v>24</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>28</v>
@@ -1740,7 +1765,7 @@
         <v>25</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>28</v>
@@ -1755,7 +1780,7 @@
         <v>27</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>28</v>
@@ -1767,10 +1792,10 @@
         <v>9</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>28</v>
@@ -1985,15 +2010,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5A85273-6B4F-4B86-8EF7-3F885FA0FA3E}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="5" width="19.33203125" customWidth="1"/>
     <col min="9" max="9" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="53.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="59.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.2" x14ac:dyDescent="0.2">
@@ -2010,7 +2035,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -2032,7 +2057,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -2044,7 +2069,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -2092,10 +2117,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>42</v>
@@ -2111,7 +2136,7 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L10:L29" si="0">C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
         <v>post_receive_id INTEGER ,</v>
       </c>
     </row>
@@ -2123,7 +2148,7 @@
         <v>32</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>42</v>
@@ -2136,10 +2161,10 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
         <v>user_id INTEGER ,</v>
       </c>
     </row>
@@ -2148,10 +2173,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>42</v>
@@ -2164,23 +2189,23 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
-      <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>post_id INTEGER ,</v>
+      <c r="L12" t="e">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>145</v>
+      <c r="B13" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>155</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>127</v>
+        <v>42</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -2188,13 +2213,11 @@
       <c r="H13" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I13" s="3"/>
+      <c r="I13" s="3">
+        <v>0</v>
+      </c>
       <c r="J13" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>created_at TIMESTAMP ,</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -2205,10 +2228,10 @@
         <v>129</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -2216,31 +2239,37 @@
       <c r="H14" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="J14" s="3"/>
-      <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">updated_at TIMESTAMP </v>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
+      <c r="H15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>118</v>
+      </c>
       <c r="J15" s="3"/>
-      <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+      <c r="L15" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -2510,8 +2539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="D8" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2576,7 +2605,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -2624,7 +2653,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>35</v>
@@ -2634,7 +2663,7 @@
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>41</v>
@@ -2643,8 +2672,8 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>user_id INTEGER ,</v>
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>mail VARCHAR (100),</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -2655,7 +2684,7 @@
         <v>43</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>39</v>
@@ -2672,8 +2701,8 @@
         <v>44</v>
       </c>
       <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>mail VARCHAR (100),</v>
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>pass VARCHAR (20),</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -2700,8 +2729,8 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>pass VARCHAR (20),</v>
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>user_name  VARCHAR (20),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -2727,9 +2756,9 @@
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
-      <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>user_name  VARCHAR (20),</v>
+      <c r="L13" t="e">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -2737,10 +2766,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>39</v>
@@ -2753,11 +2782,10 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>icon VARCHAR (100),</v>
+        <v>97</v>
+      </c>
+      <c r="L14" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -2768,7 +2796,7 @@
         <v>34</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>40</v>
@@ -2783,11 +2811,10 @@
         <v>1</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v>open_close INTEGER ,</v>
+        <v>65</v>
+      </c>
+      <c r="L15" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -2795,10 +2822,10 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>39</v>
@@ -2811,11 +2838,10 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="L16" t="str">
-        <f t="shared" si="0"/>
-        <v>introduction VARCHAR (200),</v>
+        <v>115</v>
+      </c>
+      <c r="L16" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -2823,10 +2849,10 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>122</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>121</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>42</v>
@@ -2841,11 +2867,7 @@
         <v>1</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="L17" t="str">
-        <f t="shared" si="0"/>
-        <v>flag INTEGER ,</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -2853,13 +2875,13 @@
         <v>9</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>127</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -2869,10 +2891,10 @@
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="L18:L29" si="0">C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
         <v>created_at TIMESTAMP ,</v>
       </c>
     </row>
@@ -2881,13 +2903,13 @@
         <v>10</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -2896,7 +2918,7 @@
         <v>41</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J19" s="3"/>
       <c r="L19" t="str">
@@ -3100,8 +3122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E335F36B-F1F9-49F0-826B-DDFCA2E3E38C}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3162,7 +3184,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -3210,10 +3232,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>40</v>
@@ -3238,10 +3260,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>39</v>
@@ -3256,10 +3278,10 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
         <v>title VARCHAR (50),</v>
       </c>
     </row>
@@ -3268,10 +3290,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>39</v>
@@ -3286,11 +3308,11 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>ruby VARCHAR (50),</v>
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v>creator VARCHAR (50),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -3298,10 +3320,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>39</v>
@@ -3316,20 +3338,16 @@
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
-      <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>genre VARCHAR (10),</v>
-      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>39</v>
@@ -3344,9 +3362,9 @@
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
-      <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>creator VARCHAR (50),</v>
+      <c r="L14" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -3354,10 +3372,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>39</v>
@@ -3372,11 +3390,11 @@
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v>year VARCHAR (4),</v>
+        <v>98</v>
+      </c>
+      <c r="L15" t="e">
+        <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -3384,10 +3402,10 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>39</v>
@@ -3400,11 +3418,11 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="L16" t="str">
-        <f t="shared" si="0"/>
-        <v>image VARCHAR (100),</v>
+        <v>97</v>
+      </c>
+      <c r="L16" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -3412,13 +3430,13 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>127</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -3428,11 +3446,11 @@
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="L17" t="str">
-        <f t="shared" si="0"/>
-        <v>created_at TIMESTAMP ,</v>
+        <v>134</v>
+      </c>
+      <c r="L17" t="e">
+        <f>C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -3440,13 +3458,13 @@
         <v>9</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -3455,12 +3473,12 @@
         <v>41</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J18" s="3"/>
-      <c r="L18" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">updated_at TIMESTAMP </v>
+      <c r="L18" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -3477,7 +3495,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="L19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="L19:L29" si="0">C19&amp;" "&amp;D19&amp;" "&amp;IF(E19&lt;&gt;"","("&amp;E19&amp;")","")&amp;IF(C20&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3677,7 +3695,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3726,7 +3744,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -3738,7 +3756,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -3786,10 +3804,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>42</v>
@@ -3814,10 +3832,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>42</v>
@@ -3843,7 +3861,7 @@
         <v>32</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>42</v>
@@ -3856,11 +3874,11 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>user_id INTEGER ,</v>
+        <v>104</v>
+      </c>
+      <c r="L12" t="e">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -3868,10 +3886,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>42</v>
@@ -3886,11 +3904,11 @@
         <v>0</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>status INTEGER ,</v>
+        <v>75</v>
+      </c>
+      <c r="L13" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -3898,13 +3916,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>127</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -3914,11 +3932,11 @@
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>created_at TIMESTAMP ,</v>
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v>status INTEGER ,</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -3926,13 +3944,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -3941,12 +3959,12 @@
         <v>41</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J15" s="3"/>
-      <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">updated_at TIMESTAMP </v>
+      <c r="L15" t="e">
+        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -3962,9 +3980,9 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
-      <c r="L16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+      <c r="L16" t="e">
+        <f>#REF!&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -3981,7 +3999,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="L17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="L17:L29" si="0">C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4216,8 +4234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BB964AA-EDE5-45E5-A69E-9550211D7D8F}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="F11" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -4266,7 +4284,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -4278,7 +4296,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -4326,10 +4344,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>42</v>
@@ -4354,10 +4372,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>149</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>148</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>42</v>
@@ -4370,11 +4388,11 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>user_id_writer INTEGER ,</v>
+        <v>124</v>
+      </c>
+      <c r="L11" t="e">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="16.8" x14ac:dyDescent="0.2">
@@ -4382,10 +4400,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>42</v>
@@ -4398,11 +4416,11 @@
       </c>
       <c r="I12" s="6"/>
       <c r="J12" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>contents_id INTEGER ,</v>
+        <v>125</v>
+      </c>
+      <c r="L12" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -4410,10 +4428,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>39</v>
@@ -4428,11 +4446,11 @@
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>title VARCHAR (50),</v>
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>contents_id INTEGER ,</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -4440,10 +4458,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>39</v>
@@ -4456,10 +4474,10 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
         <v>review VARCHAR (500),</v>
       </c>
     </row>
@@ -4468,10 +4486,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>39</v>
@@ -4484,11 +4502,11 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v>image VARCHAR (100),</v>
+        <v>97</v>
+      </c>
+      <c r="L15" t="e">
+        <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -4496,13 +4514,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>48</v>
+        <v>129</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>54</v>
+        <v>126</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>42</v>
+        <v>128</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -4510,15 +4528,13 @@
       <c r="H16" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I16" s="3">
-        <v>0</v>
-      </c>
+      <c r="I16" s="3"/>
       <c r="J16" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="L16" t="str">
-        <f t="shared" si="0"/>
-        <v>good INTEGER ,</v>
+        <v>134</v>
+      </c>
+      <c r="L16" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -4526,13 +4542,13 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>127</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -4540,41 +4556,31 @@
       <c r="H17" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="L17" t="str">
-        <f t="shared" si="0"/>
-        <v>created_at TIMESTAMP ,</v>
+      <c r="I17" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="J17" s="3"/>
+      <c r="L17" t="e">
+        <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>9</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>127</v>
-      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
-      <c r="H18" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>117</v>
-      </c>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
       <c r="J18" s="3"/>
-      <c r="L18" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">updated_at TIMESTAMP </v>
+      <c r="L18" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -4591,8 +4597,8 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="L19" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C20&lt;&gt;"",",","")</f>
+        <v>image VARCHAR (100)</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -4609,7 +4615,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="L20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="L20:L29" si="0">C20&amp;" "&amp;D20&amp;" "&amp;IF(E20&lt;&gt;"","("&amp;E20&amp;")","")&amp;IF(C21&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4791,8 +4797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE81DF62-9962-4662-9621-11A937BFA3D5}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="D11" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -4819,7 +4825,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -4841,7 +4847,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -4853,7 +4859,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -4901,10 +4907,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>42</v>
@@ -4919,9 +4925,9 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
-      <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>good_id INTEGER ,</v>
+      <c r="L10" t="e">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -4929,10 +4935,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>42</v>
@@ -4945,11 +4951,11 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>review_id INTEGER ,</v>
+        <v>133</v>
+      </c>
+      <c r="L11" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -4960,7 +4966,7 @@
         <v>32</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>42</v>
@@ -4973,11 +4979,11 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>user_id INTEGER ,</v>
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>created_at TIMESTAMP ,</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -4985,13 +4991,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -5001,11 +5007,11 @@
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>created_at TIMESTAMP ,</v>
+        <v>134</v>
+      </c>
+      <c r="L13" t="e">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -5013,13 +5019,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -5028,12 +5034,12 @@
         <v>41</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J14" s="3"/>
-      <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">updated_at TIMESTAMP </v>
+      <c r="L14" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -5049,9 +5055,9 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
-      <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+      <c r="L15" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -5068,7 +5074,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="L16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="L16:L29" si="0">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -5319,10 +5325,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA9F41C7-F4D7-4E4E-A148-D2DA2898BE2B}">
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5338,10 +5344,10 @@
     <col min="10" max="10" width="78.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="19.2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="19.2" x14ac:dyDescent="0.2">
       <c r="A1" s="4"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>20</v>
       </c>
@@ -5352,10 +5358,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -5369,7 +5375,7 @@
         <v>45450</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
@@ -5381,19 +5387,19 @@
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -5428,20 +5434,16 @@
         <f>"create table "&amp;C5&amp;" ("</f>
         <v>create table chat (</v>
       </c>
-      <c r="M9" t="str">
-        <f>"create table "&amp;D5&amp;" ("</f>
-        <v>create table 更新日 (</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>42</v>
@@ -5457,23 +5459,19 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L10:L29" si="0">C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
         <v>chat_id INTEGER ,</v>
       </c>
-      <c r="M10" t="str">
-        <f>D10&amp;" "&amp;E10&amp;" "&amp;IF(F10&lt;&gt;"","("&amp;F10&amp;")","")&amp;IF(D11&lt;&gt;"",",","")</f>
-        <v>INTEGER  (〇),</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>42</v>
@@ -5487,23 +5485,19 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>user_id_speaker INTEGER ,</v>
       </c>
-      <c r="M11" t="str">
-        <f>D11&amp;" "&amp;E11&amp;" "&amp;IF(F11&lt;&gt;"","("&amp;F11&amp;")","")&amp;IF(D12&lt;&gt;"",",","")</f>
-        <v>INTEGER  ,</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>42</v>
@@ -5517,23 +5511,19 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>user_id_listener INTEGER ,</v>
       </c>
-      <c r="M12" t="str">
-        <f>D12&amp;" "&amp;E12&amp;" "&amp;IF(F12&lt;&gt;"","("&amp;F12&amp;")","")&amp;IF(D13&lt;&gt;"",",","")</f>
-        <v>INTEGER  ,</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>38</v>
@@ -5546,26 +5536,22 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>talk VARCHAR (500),</v>
       </c>
-      <c r="M13" t="str">
-        <f>D13&amp;" "&amp;E13&amp;" "&amp;IF(F13&lt;&gt;"","("&amp;F13&amp;")","")&amp;IF(D14&lt;&gt;"",",","")</f>
-        <v>VARCHAR 500 ,</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>38</v>
@@ -5578,26 +5564,22 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>image VARCHAR (100),</v>
-      </c>
-      <c r="M14" t="str">
-        <f>D14&amp;" "&amp;E14&amp;" "&amp;IF(F14&lt;&gt;"","("&amp;F14&amp;")","")&amp;IF(D15&lt;&gt;"",",","")</f>
-        <v>VARCHAR 100 ,</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="L14" t="e">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>111</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>42</v>
@@ -5612,29 +5594,25 @@
         <v>0</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="L15" t="str">
-        <f t="shared" ref="L15:M29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v>check INTEGER ,</v>
-      </c>
-      <c r="M15" t="str">
-        <f t="shared" si="0"/>
-        <v>INTEGER  ,</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+      <c r="L15" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>127</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -5644,29 +5622,25 @@
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L16" t="str">
-        <f t="shared" si="0"/>
-        <v>created_at TIMESTAMP ,</v>
-      </c>
-      <c r="M16" t="str">
-        <f t="shared" si="0"/>
-        <v>TIMESTAMP  ,</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v>check INTEGER ,</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -5675,19 +5649,15 @@
         <v>41</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J17" s="3"/>
       <c r="L17" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">updated_at TIMESTAMP </v>
-      </c>
-      <c r="M17" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">TIMESTAMP  </v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+        <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <v>created_at TIMESTAMP ,</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -5701,15 +5671,11 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="L18" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-      <c r="M18" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+        <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">updated_at TIMESTAMP </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -5726,12 +5692,8 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
-      <c r="M19" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -5748,12 +5710,8 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
-      <c r="M20" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -5770,12 +5728,8 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
-      <c r="M21" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -5792,12 +5746,8 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
-      <c r="M22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -5814,12 +5764,8 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
-      <c r="M23" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -5836,12 +5782,8 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
-      <c r="M24" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -5858,12 +5800,8 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
-      <c r="M25" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -5880,12 +5818,8 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
-      <c r="M26" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -5902,12 +5836,8 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
-      <c r="M27" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -5924,12 +5854,8 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
-      <c r="M28" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -5946,16 +5872,9 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
-      <c r="M29" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L30" t="s">
-        <v>19</v>
-      </c>
-      <c r="M30" t="s">
         <v>19</v>
       </c>
     </row>
@@ -5969,8 +5888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED5B2574-DA89-4281-B334-BDD5759C0266}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9:L30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5995,7 +5914,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -6029,7 +5948,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -6080,7 +5999,7 @@
         <v>32</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>42</v>
@@ -6095,11 +6014,11 @@
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>user_id INTEGER ,</v>
+        <v>99</v>
+      </c>
+      <c r="L10" t="e">
+        <f>C10&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -6107,10 +6026,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>42</v>
@@ -6123,11 +6042,11 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>user_id_favorite INTEGER ,</v>
+        <v>100</v>
+      </c>
+      <c r="L11" t="e">
+        <f>#REF!&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -6135,13 +6054,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>127</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -6151,11 +6070,11 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>created_at TIMESTAMP ,</v>
+        <v>134</v>
+      </c>
+      <c r="L12" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -6163,13 +6082,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -6178,11 +6097,11 @@
         <v>41</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J13" s="3"/>
       <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L13:L29" si="0">C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
         <v xml:space="preserve">updated_at TIMESTAMP </v>
       </c>
     </row>
@@ -6200,7 +6119,7 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -6218,7 +6137,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -6489,8 +6408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97415D3E-2CCA-4207-BA3B-ADD46DE8CC7F}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="D11" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -6514,7 +6433,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -6548,7 +6467,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -6596,10 +6515,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>42</v>
@@ -6615,7 +6534,7 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L10:L29" si="0">C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
         <v>post_id INTEGER ,</v>
       </c>
     </row>
@@ -6624,10 +6543,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>149</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>148</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>42</v>
@@ -6639,10 +6558,10 @@
         <v>41</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
         <v>user_id_writer INTEGER ,</v>
       </c>
     </row>
@@ -6651,10 +6570,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>39</v>
@@ -6669,11 +6588,11 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>title VARCHAR (50),</v>
+        <v>107</v>
+      </c>
+      <c r="L12" t="e">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -6681,10 +6600,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>39</v>
@@ -6699,11 +6618,11 @@
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>recommend VARCHAR (200),</v>
+        <v>110</v>
+      </c>
+      <c r="L13" t="e">
+        <f>#REF!&amp;" "&amp;D14&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -6711,10 +6630,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>42</v>
@@ -6729,11 +6648,11 @@
         <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>interest INTEGER ,</v>
+        <v>111</v>
+      </c>
+      <c r="L14" t="e">
+        <f>C14&amp;" "&amp;#REF!&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -6741,13 +6660,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>127</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -6757,10 +6676,10 @@
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>created_at TIMESTAMP ,</v>
       </c>
     </row>
@@ -6769,13 +6688,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -6784,7 +6703,7 @@
         <v>41</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J16" s="3"/>
       <c r="L16" t="str">

--- a/doc/2_外部設計書/02_DB定義書_WAC.xlsx
+++ b/doc/2_外部設計書/02_DB定義書_WAC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A2\doc\2_外部設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D02F910-EC47-49A4-B738-5C5442EBC747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14AFE238-87FE-4878-B73D-A8EA37CD5C04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -1249,7 +1249,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1276,9 +1276,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2010,7 +2007,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5A85273-6B4F-4B86-8EF7-3F885FA0FA3E}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
@@ -2198,10 +2195,10 @@
       <c r="A13" s="3">
         <v>4</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="3" t="s">
         <v>155</v>
       </c>
       <c r="D13" s="3" t="s">
@@ -4234,7 +4231,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BB964AA-EDE5-45E5-A69E-9550211D7D8F}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>

--- a/doc/2_外部設計書/02_DB定義書_WAC.xlsx
+++ b/doc/2_外部設計書/02_DB定義書_WAC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A2\doc\2_外部設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14AFE238-87FE-4878-B73D-A8EA37CD5C04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FED08F5-7F2A-49AF-AF3C-2BEB8856173C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="155">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -301,14 +301,6 @@
   </si>
   <si>
     <t>メールはもっと長いものもあるが、今回は100文字までのメールアドレスに限定する。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>photo BLOB,</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>private INTEGER,</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1586,7 +1578,7 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -1615,10 +1607,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1672,7 +1664,7 @@
         <v>26</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>28</v>
@@ -1687,7 +1679,7 @@
         <v>23</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>28</v>
@@ -1699,10 +1691,10 @@
         <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>28</v>
@@ -1714,10 +1706,10 @@
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>28</v>
@@ -1729,10 +1721,10 @@
         <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>28</v>
@@ -1747,7 +1739,7 @@
         <v>24</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>28</v>
@@ -1762,7 +1754,7 @@
         <v>25</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>28</v>
@@ -1777,7 +1769,7 @@
         <v>27</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>28</v>
@@ -1789,10 +1781,10 @@
         <v>9</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>28</v>
@@ -2007,8 +1999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5A85273-6B4F-4B86-8EF7-3F885FA0FA3E}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2032,7 +2024,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -2054,7 +2046,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -2066,7 +2058,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -2114,10 +2106,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>42</v>
@@ -2133,7 +2125,7 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
-        <f t="shared" ref="L10:L29" si="0">C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
         <v>post_receive_id INTEGER ,</v>
       </c>
     </row>
@@ -2145,7 +2137,7 @@
         <v>32</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>42</v>
@@ -2158,10 +2150,10 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
         <v>user_id INTEGER ,</v>
       </c>
     </row>
@@ -2170,10 +2162,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>42</v>
@@ -2186,9 +2178,9 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
-      <c r="L12" t="e">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+      <c r="L12" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>post_id INTEGER ,</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -2196,10 +2188,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>42</v>
@@ -2214,7 +2206,11 @@
         <v>0</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
+      </c>
+      <c r="L13" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>my_interest INTEGER ,</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -2222,13 +2218,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -2238,7 +2234,11 @@
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
+      </c>
+      <c r="L14" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v>created_at TIMESTAMP ,</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -2246,13 +2246,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -2261,12 +2261,12 @@
         <v>41</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J15" s="3"/>
-      <c r="L15" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+      <c r="L15" t="str">
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">updated_at TIMESTAMP </v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -2536,8 +2536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="B1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9:L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2602,7 +2602,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -2650,7 +2650,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>35</v>
@@ -2660,7 +2660,7 @@
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>41</v>
@@ -2669,8 +2669,8 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>mail VARCHAR (100),</v>
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>user_id INTEGER ,</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -2681,7 +2681,7 @@
         <v>43</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>39</v>
@@ -2698,8 +2698,8 @@
         <v>44</v>
       </c>
       <c r="L11" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>pass VARCHAR (20),</v>
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>mail VARCHAR (100),</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -2726,8 +2726,8 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>user_name  VARCHAR (20),</v>
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>pass VARCHAR (20),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -2753,9 +2753,9 @@
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
-      <c r="L13" t="e">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+      <c r="L13" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>user_name  VARCHAR (20),</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -2763,10 +2763,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>39</v>
@@ -2779,10 +2779,11 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="L14" t="s">
-        <v>46</v>
+        <v>95</v>
+      </c>
+      <c r="L14" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v>icon VARCHAR (100),</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -2793,7 +2794,7 @@
         <v>34</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>40</v>
@@ -2808,10 +2809,11 @@
         <v>1</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="L15" t="s">
-        <v>45</v>
+        <v>63</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v>open_close INTEGER ,</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -2819,10 +2821,10 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>39</v>
@@ -2835,10 +2837,11 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="L16" t="s">
-        <v>46</v>
+        <v>113</v>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v>introduction VARCHAR (200),</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -2846,10 +2849,10 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>42</v>
@@ -2864,7 +2867,11 @@
         <v>1</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
+      </c>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v>flag INTEGER ,</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -2872,13 +2879,13 @@
         <v>9</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>126</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>128</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -2888,10 +2895,10 @@
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="L18" t="str">
-        <f t="shared" ref="L18:L29" si="0">C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>created_at TIMESTAMP ,</v>
       </c>
     </row>
@@ -2900,13 +2907,13 @@
         <v>10</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -2915,7 +2922,7 @@
         <v>41</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J19" s="3"/>
       <c r="L19" t="str">
@@ -3119,8 +3126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E335F36B-F1F9-49F0-826B-DDFCA2E3E38C}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3181,7 +3188,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -3229,10 +3236,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>40</v>
@@ -3257,10 +3264,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>39</v>
@@ -3275,10 +3282,10 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
         <v>title VARCHAR (50),</v>
       </c>
     </row>
@@ -3287,10 +3294,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>142</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>144</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>39</v>
@@ -3305,11 +3312,11 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L12" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>creator VARCHAR (50),</v>
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>ruby VARCHAR (50),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -3317,10 +3324,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>39</v>
@@ -3335,16 +3342,20 @@
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
+      <c r="L13" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>genre VARCHAR (10),</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>39</v>
@@ -3359,9 +3370,9 @@
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
-      <c r="L14" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+      <c r="L14" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v>creator VARCHAR (50),</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -3369,10 +3380,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>39</v>
@@ -3387,11 +3398,11 @@
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="L15" t="e">
-        <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+        <v>96</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v>year VARCHAR (4),</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -3399,10 +3410,10 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>39</v>
@@ -3415,11 +3426,11 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="L16" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+        <v>95</v>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v>image VARCHAR (100),</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -3427,13 +3438,13 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -3443,11 +3454,11 @@
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="L17" t="e">
-        <f>C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+        <v>132</v>
+      </c>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v>created_at TIMESTAMP ,</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -3455,13 +3466,13 @@
         <v>9</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -3470,12 +3481,12 @@
         <v>41</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J18" s="3"/>
-      <c r="L18" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">updated_at TIMESTAMP </v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -3492,7 +3503,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="L19" t="str">
-        <f t="shared" ref="L19:L29" si="0">C19&amp;" "&amp;D19&amp;" "&amp;IF(E19&lt;&gt;"","("&amp;E19&amp;")","")&amp;IF(C20&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3691,8 +3702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5D5E0EB-9921-429B-8FCC-6F818F8F71F3}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9:N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3741,7 +3752,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -3753,7 +3764,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -3801,10 +3812,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>42</v>
@@ -3829,10 +3840,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>42</v>
@@ -3858,7 +3869,7 @@
         <v>32</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>42</v>
@@ -3871,11 +3882,11 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="L12" t="e">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+        <v>102</v>
+      </c>
+      <c r="L12" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>user_id INTEGER ,</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -3883,10 +3894,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>42</v>
@@ -3901,11 +3912,11 @@
         <v>0</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="L13" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+        <v>73</v>
+      </c>
+      <c r="L13" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>status INTEGER ,</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -3913,13 +3924,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>126</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>128</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -3929,11 +3940,11 @@
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="L14" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>status INTEGER ,</v>
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v>created_at TIMESTAMP ,</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -3941,13 +3952,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -3956,12 +3967,12 @@
         <v>41</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J15" s="3"/>
-      <c r="L15" t="e">
-        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+      <c r="L15" t="str">
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">updated_at TIMESTAMP </v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -3977,9 +3988,9 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
-      <c r="L16" t="e">
-        <f>#REF!&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -3996,7 +4007,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="L17" t="str">
-        <f t="shared" ref="L17:L29" si="0">C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4231,8 +4242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BB964AA-EDE5-45E5-A69E-9550211D7D8F}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -4281,7 +4292,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -4293,7 +4304,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -4341,10 +4352,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>42</v>
@@ -4369,10 +4380,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>42</v>
@@ -4385,11 +4396,11 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="L11" t="e">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+        <v>122</v>
+      </c>
+      <c r="L11" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>user_id_writer INTEGER ,</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="16.8" x14ac:dyDescent="0.2">
@@ -4397,10 +4408,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>42</v>
@@ -4413,11 +4424,11 @@
       </c>
       <c r="I12" s="6"/>
       <c r="J12" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="L12" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+        <v>123</v>
+      </c>
+      <c r="L12" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>contents_id INTEGER ,</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -4425,10 +4436,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>39</v>
@@ -4443,11 +4454,11 @@
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L13" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>contents_id INTEGER ,</v>
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>title VARCHAR (50),</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -4455,10 +4466,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>39</v>
@@ -4471,10 +4482,10 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
         <v>review VARCHAR (500),</v>
       </c>
     </row>
@@ -4483,10 +4494,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>39</v>
@@ -4499,11 +4510,11 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="L15" t="e">
-        <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+        <v>95</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v>image VARCHAR (100),</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -4511,13 +4522,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>126</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>128</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -4527,11 +4538,11 @@
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="L16" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+        <v>132</v>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v>created_at TIMESTAMP ,</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -4539,13 +4550,13 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -4554,12 +4565,12 @@
         <v>41</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J17" s="3"/>
-      <c r="L17" t="e">
-        <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">updated_at TIMESTAMP </v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -4575,9 +4586,9 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
-      <c r="L18" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -4594,8 +4605,8 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="L19" t="str">
-        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C20&lt;&gt;"",",","")</f>
-        <v>image VARCHAR (100)</v>
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -4612,7 +4623,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="L20" t="str">
-        <f t="shared" ref="L20:L29" si="0">C20&amp;" "&amp;D20&amp;" "&amp;IF(E20&lt;&gt;"","("&amp;E20&amp;")","")&amp;IF(C21&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4794,8 +4805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE81DF62-9962-4662-9621-11A937BFA3D5}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -4822,7 +4833,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -4844,7 +4855,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -4856,7 +4867,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -4904,10 +4915,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>42</v>
@@ -4922,9 +4933,9 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
-      <c r="L10" t="e">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>good_id INTEGER ,</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -4932,10 +4943,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>42</v>
@@ -4948,11 +4959,11 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="L11" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+        <v>131</v>
+      </c>
+      <c r="L11" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>review_id INTEGER ,</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -4963,7 +4974,7 @@
         <v>32</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>42</v>
@@ -4976,11 +4987,11 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L12" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>created_at TIMESTAMP ,</v>
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>user_id INTEGER ,</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -4988,13 +4999,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -5004,11 +5015,11 @@
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="L13" t="e">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+        <v>132</v>
+      </c>
+      <c r="L13" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>created_at TIMESTAMP ,</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -5016,13 +5027,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -5031,12 +5042,12 @@
         <v>41</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J14" s="3"/>
-      <c r="L14" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+      <c r="L14" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">updated_at TIMESTAMP </v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -5052,9 +5063,9 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
-      <c r="L15" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+      <c r="L15" t="str">
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -5071,7 +5082,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="L16" t="str">
-        <f t="shared" ref="L16:L29" si="0">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -5324,8 +5335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA9F41C7-F4D7-4E4E-A148-D2DA2898BE2B}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5355,7 +5366,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -5389,7 +5400,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -5437,10 +5448,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>42</v>
@@ -5456,7 +5467,7 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
-        <f t="shared" ref="L10:L29" si="0">C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
         <v>chat_id INTEGER ,</v>
       </c>
     </row>
@@ -5465,10 +5476,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>42</v>
@@ -5482,7 +5493,7 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="L11" t="str">
-        <f t="shared" si="0"/>
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
         <v>user_id_speaker INTEGER ,</v>
       </c>
     </row>
@@ -5491,10 +5502,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>42</v>
@@ -5508,7 +5519,7 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
-        <f t="shared" si="0"/>
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
         <v>user_id_listener INTEGER ,</v>
       </c>
     </row>
@@ -5517,10 +5528,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>38</v>
@@ -5533,10 +5544,10 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L13" t="str">
-        <f t="shared" si="0"/>
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
         <v>talk VARCHAR (500),</v>
       </c>
     </row>
@@ -5545,10 +5556,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>38</v>
@@ -5561,11 +5572,11 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="L14" t="e">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+        <v>99</v>
+      </c>
+      <c r="L14" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v>image VARCHAR (100),</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -5573,10 +5584,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>42</v>
@@ -5591,11 +5602,11 @@
         <v>0</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="L15" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+        <v>112</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v>check INTEGER ,</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -5603,13 +5614,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>126</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>128</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -5619,11 +5630,11 @@
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="L16" t="str">
-        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v>check INTEGER ,</v>
+        <f t="shared" si="0"/>
+        <v>created_at TIMESTAMP ,</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -5631,13 +5642,13 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -5646,12 +5657,12 @@
         <v>41</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J17" s="3"/>
       <c r="L17" t="str">
-        <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
-        <v>created_at TIMESTAMP ,</v>
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">updated_at TIMESTAMP </v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -5668,8 +5679,8 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="L18" t="str">
-        <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">updated_at TIMESTAMP </v>
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -5885,8 +5896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED5B2574-DA89-4281-B334-BDD5759C0266}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5911,7 +5922,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -5945,7 +5956,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -5996,7 +6007,7 @@
         <v>32</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>42</v>
@@ -6011,11 +6022,11 @@
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="L10" t="e">
-        <f>C10&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+        <v>97</v>
+      </c>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>user_id INTEGER ,</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -6023,10 +6034,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>42</v>
@@ -6039,11 +6050,11 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="L11" t="e">
-        <f>#REF!&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+        <v>98</v>
+      </c>
+      <c r="L11" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>user_id_favorite INTEGER ,</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -6051,13 +6062,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>126</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>128</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -6067,11 +6078,11 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="L12" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+        <v>132</v>
+      </c>
+      <c r="L12" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>created_at TIMESTAMP ,</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -6079,13 +6090,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -6094,11 +6105,11 @@
         <v>41</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J13" s="3"/>
       <c r="L13" t="str">
-        <f t="shared" ref="L13:L29" si="0">C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
         <v xml:space="preserve">updated_at TIMESTAMP </v>
       </c>
     </row>
@@ -6116,7 +6127,7 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="L14" t="str">
-        <f t="shared" si="0"/>
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -6134,7 +6145,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="L15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -6405,8 +6416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97415D3E-2CCA-4207-BA3B-ADD46DE8CC7F}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -6430,7 +6441,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -6464,7 +6475,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -6512,10 +6523,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>42</v>
@@ -6531,7 +6542,7 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
-        <f t="shared" ref="L10:L29" si="0">C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
         <v>post_id INTEGER ,</v>
       </c>
     </row>
@@ -6540,10 +6551,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>42</v>
@@ -6555,10 +6566,10 @@
         <v>41</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
         <v>user_id_writer INTEGER ,</v>
       </c>
     </row>
@@ -6567,10 +6578,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>39</v>
@@ -6585,11 +6596,11 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="L12" t="e">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+        <v>105</v>
+      </c>
+      <c r="L12" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>title VARCHAR (50),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -6597,10 +6608,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>39</v>
@@ -6615,11 +6626,11 @@
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="L13" t="e">
-        <f>#REF!&amp;" "&amp;D14&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+        <v>108</v>
+      </c>
+      <c r="L13" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>recommend VARCHAR (200),</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -6627,10 +6638,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>42</v>
@@ -6645,11 +6656,11 @@
         <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="L14" t="e">
-        <f>C14&amp;" "&amp;#REF!&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+        <v>109</v>
+      </c>
+      <c r="L14" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v>interest INTEGER ,</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -6657,13 +6668,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -6673,10 +6684,10 @@
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="L15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
         <v>created_at TIMESTAMP ,</v>
       </c>
     </row>
@@ -6685,13 +6696,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -6700,7 +6711,7 @@
         <v>41</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J16" s="3"/>
       <c r="L16" t="str">

--- a/doc/2_外部設計書/02_DB定義書_WAC.xlsx
+++ b/doc/2_外部設計書/02_DB定義書_WAC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A2\doc\2_外部設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FED08F5-7F2A-49AF-AF3C-2BEB8856173C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A1DC823-8EBC-4753-AE9A-617787E121F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -797,10 +797,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>check</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>既読</t>
     <rPh sb="0" eb="2">
       <t>キドク</t>
@@ -1124,6 +1120,10 @@
     <rPh sb="3" eb="4">
       <t>キ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>checked</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1578,7 +1578,7 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -1610,7 +1610,7 @@
         <v>59</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1664,7 +1664,7 @@
         <v>26</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>28</v>
@@ -1679,7 +1679,7 @@
         <v>23</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>28</v>
@@ -1694,7 +1694,7 @@
         <v>55</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>28</v>
@@ -1739,7 +1739,7 @@
         <v>24</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>28</v>
@@ -1754,7 +1754,7 @@
         <v>25</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>28</v>
@@ -1769,7 +1769,7 @@
         <v>27</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>28</v>
@@ -1784,7 +1784,7 @@
         <v>57</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>28</v>
@@ -2058,7 +2058,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -2188,10 +2188,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>152</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>153</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>42</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
@@ -2218,13 +2218,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -2234,7 +2234,7 @@
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
@@ -2246,13 +2246,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>125</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>126</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -2261,7 +2261,7 @@
         <v>41</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J15" s="3"/>
       <c r="L15" t="str">
@@ -2536,8 +2536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9:L30"/>
+    <sheetView zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2602,7 +2602,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -2794,7 +2794,7 @@
         <v>34</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>40</v>
@@ -2821,10 +2821,10 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>39</v>
@@ -2837,7 +2837,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L16" t="str">
         <f t="shared" si="0"/>
@@ -2849,10 +2849,10 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>42</v>
@@ -2867,7 +2867,7 @@
         <v>1</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L17" t="str">
         <f t="shared" si="0"/>
@@ -2879,13 +2879,13 @@
         <v>9</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -2895,7 +2895,7 @@
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L18" t="str">
         <f t="shared" si="0"/>
@@ -2907,13 +2907,13 @@
         <v>10</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C19" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>125</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>126</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -2922,7 +2922,7 @@
         <v>41</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J19" s="3"/>
       <c r="L19" t="str">
@@ -3127,7 +3127,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3188,7 +3188,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -3282,7 +3282,7 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -3294,10 +3294,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>39</v>
@@ -3312,7 +3312,7 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -3352,10 +3352,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>39</v>
@@ -3438,13 +3438,13 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -3454,7 +3454,7 @@
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L17" t="str">
         <f t="shared" si="0"/>
@@ -3466,13 +3466,13 @@
         <v>9</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>125</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>126</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -3481,7 +3481,7 @@
         <v>41</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J18" s="3"/>
       <c r="L18" t="str">
@@ -3703,7 +3703,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9:N30"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3764,7 +3764,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -3924,13 +3924,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -3940,7 +3940,7 @@
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
@@ -3952,13 +3952,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>125</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>126</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -3967,7 +3967,7 @@
         <v>41</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J15" s="3"/>
       <c r="L15" t="str">
@@ -4242,8 +4242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BB964AA-EDE5-45E5-A69E-9550211D7D8F}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="M38" sqref="M38"/>
+    <sheetView topLeftCell="A7" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -4380,10 +4380,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>42</v>
@@ -4396,7 +4396,7 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -4424,7 +4424,7 @@
       </c>
       <c r="I12" s="6"/>
       <c r="J12" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -4522,13 +4522,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -4538,7 +4538,7 @@
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L16" t="str">
         <f t="shared" si="0"/>
@@ -4550,13 +4550,13 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>125</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>126</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -4565,7 +4565,7 @@
         <v>41</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J17" s="3"/>
       <c r="L17" t="str">
@@ -4833,7 +4833,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -4915,10 +4915,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>149</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>150</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>42</v>
@@ -4959,7 +4959,7 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -4987,7 +4987,7 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -4999,13 +4999,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -5015,7 +5015,7 @@
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
@@ -5027,13 +5027,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -5042,7 +5042,7 @@
         <v>41</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J14" s="3"/>
       <c r="L14" t="str">
@@ -5335,8 +5335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA9F41C7-F4D7-4E4E-A148-D2DA2898BE2B}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5400,7 +5400,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -5584,10 +5584,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>110</v>
+        <v>154</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>42</v>
@@ -5602,11 +5602,11 @@
         <v>0</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L15" t="str">
         <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v>check INTEGER ,</v>
+        <v>checked INTEGER ,</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -5614,13 +5614,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -5630,7 +5630,7 @@
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L16" t="str">
         <f t="shared" si="0"/>
@@ -5642,13 +5642,13 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>125</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>126</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -5657,7 +5657,7 @@
         <v>41</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J17" s="3"/>
       <c r="L17" t="str">
@@ -5956,7 +5956,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -6062,13 +6062,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -6078,7 +6078,7 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -6090,13 +6090,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>125</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>126</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -6105,7 +6105,7 @@
         <v>41</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J13" s="3"/>
       <c r="L13" t="str">
@@ -6475,7 +6475,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -6551,10 +6551,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>42</v>
@@ -6668,13 +6668,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -6684,7 +6684,7 @@
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L15" t="str">
         <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
@@ -6696,13 +6696,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>125</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>126</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -6711,7 +6711,7 @@
         <v>41</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J16" s="3"/>
       <c r="L16" t="str">

--- a/doc/2_外部設計書/02_DB定義書_WAC.xlsx
+++ b/doc/2_外部設計書/02_DB定義書_WAC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A2\doc\2_外部設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A1DC823-8EBC-4753-AE9A-617787E121F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66AAE55A-7FB4-4E6E-8731-D1996F288F05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="158">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -1124,6 +1124,27 @@
   </si>
   <si>
     <t>checked</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>favorite_user_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お気に入りユーザテーブルID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理するためのid、アプリ内では使わない</t>
+    <rPh sb="0" eb="2">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ツカ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3703,7 +3724,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5335,7 +5356,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA9F41C7-F4D7-4E4E-A148-D2DA2898BE2B}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+    <sheetView zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -5896,14 +5917,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED5B2574-DA89-4281-B334-BDD5759C0266}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.88671875" customWidth="1"/>
-    <col min="2" max="5" width="19.33203125" customWidth="1"/>
+    <col min="2" max="2" width="28.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="19.33203125" customWidth="1"/>
     <col min="9" max="9" width="22.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="56.44140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -6004,10 +6026,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>32</v>
+        <v>156</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>49</v>
+        <v>155</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>42</v>
@@ -6016,16 +6038,16 @@
       <c r="F10" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>41</v>
       </c>
+      <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>97</v>
+        <v>157</v>
       </c>
       <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
         <v>user_id INTEGER ,</v>
       </c>
     </row>
@@ -6034,10 +6056,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>94</v>
+        <v>49</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>42</v>
@@ -6050,10 +6072,10 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
         <v>user_id_favorite INTEGER ,</v>
       </c>
     </row>
@@ -6062,13 +6084,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>126</v>
+        <v>84</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>125</v>
+        <v>42</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -6078,10 +6100,10 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
         <v>created_at TIMESTAMP ,</v>
       </c>
     </row>
@@ -6090,10 +6112,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>125</v>
@@ -6104,31 +6126,41 @@
       <c r="H13" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I13" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="J13" s="3"/>
-      <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">updated_at TIMESTAMP </v>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="L13" t="e">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>125</v>
+      </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
+      <c r="H14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>115</v>
+      </c>
       <c r="J14" s="3"/>
-      <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+      <c r="L14" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">

--- a/doc/2_外部設計書/02_DB定義書_WAC.xlsx
+++ b/doc/2_外部設計書/02_DB定義書_WAC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A2\doc\2_外部設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66AAE55A-7FB4-4E6E-8731-D1996F288F05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5133F095-E1AC-4B24-8DDF-E345389E595E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -2020,7 +2020,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5A85273-6B4F-4B86-8EF7-3F885FA0FA3E}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
       <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
@@ -2557,7 +2557,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
@@ -3723,7 +3723,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5D5E0EB-9921-429B-8FCC-6F818F8F71F3}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="B3" workbookViewId="0">
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
@@ -5356,8 +5356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA9F41C7-F4D7-4E4E-A148-D2DA2898BE2B}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5638,7 +5638,7 @@
         <v>126</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>125</v>
@@ -5917,8 +5917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED5B2574-DA89-4281-B334-BDD5759C0266}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView topLeftCell="B1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
